--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -2257,8 +2257,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2269,14 +2274,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="75">
@@ -4304,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4328,7 +4328,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4342,14 +4342,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -4372,92 +4372,92 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>666</v>
       </c>
     </row>
@@ -4712,12 +4712,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F5:F7" r:id="rId2" display="abc@company.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4725,8 +4721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4748,19 +4744,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -4798,160 +4794,160 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="25" t="b">
+      <c r="F4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="J4" s="25" t="b">
+      <c r="J4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="19" t="s">
         <v>652</v>
       </c>
       <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="25" t="b">
+      <c r="F5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="J5" s="25" t="b">
+      <c r="J5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="19" t="s">
         <v>654</v>
       </c>
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>672</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="25" t="b">
+      <c r="F6" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="J6" s="25" t="b">
+      <c r="J6" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="19" t="s">
         <v>653</v>
       </c>
       <c r="O6" s="17"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="25" t="b">
+      <c r="F7" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="J7" s="25" t="b">
+      <c r="J7" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="19" t="s">
         <v>655</v>
       </c>
       <c r="O7" s="17"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="676">
   <si>
     <t>Region</t>
   </si>
@@ -2068,15 +2068,6 @@
     <t>abc@company.com</t>
   </si>
   <si>
-    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); Columns: Region, Compartment Name, Topic, Protocol and Endpoint are mandatory.</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); Columns: Region, Compartment Name, Event Name, Action Type, Action is Enabled, Service Name, Resources, Event is Enabled and Topic are mandatory.</t>
-  </si>
-  <si>
-    <t>Automation Toolkit release verion- v7.0</t>
-  </si>
-  <si>
     <t>Apps</t>
   </si>
   <si>
@@ -2087,13 +2078,194 @@
   </si>
   <si>
     <t>Alerts for NSGs Modifications</t>
+  </si>
+  <si>
+    <t>Defined Tags</t>
+  </si>
+  <si>
+    <t>Operations.CostCenter=01;
+Users.Name=user01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit release verion- v7.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columns: Region, Compartment Name, Topic, Protocol and Endpoint are mandatory.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Protocol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Only EMAIL is supported currently for creation. Export supports Functions and Email.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columns: Region, Compartment Name, Event Name, Action Type, Action is Enabled, Service Name, Resources, Event is Enabled and Topic are mandatory.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Resource"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Choose the appropriate option from the dropdown, populated based on the 'Service Name' selected.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2137,8 +2309,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2153,7 +2333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,30 +2375,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
@@ -2220,16 +2388,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2243,7 +2436,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2258,21 +2451,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3669,6 +3862,7 @@
       <sheetName val="TagVolume"/>
       <sheetName val="NSGs"/>
       <sheetName val="Sheet 2"/>
+      <sheetName val="Data_Validation Values"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -3720,6 +3914,7 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4302,7 +4497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4310,407 +4505,421 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="167.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="167.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>669</v>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:1" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="14"/>
-    <col min="2" max="2" width="18.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="14"/>
+    <col min="1" max="1" width="8.77734375" style="13"/>
+    <col min="2" max="2" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>667</v>
+    <row r="1" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>674</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="G2" s="21" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="G4" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>671</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>658</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4722,242 +4931,253 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="14"/>
-    <col min="2" max="2" width="18.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="14" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="14"/>
-    <col min="13" max="13" width="11.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="14"/>
+    <col min="1" max="1" width="8.77734375" style="13"/>
+    <col min="2" max="2" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="32" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J4" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="C6" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>662</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="G6" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B7" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="21" t="b">
+      <c r="F7" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="J4" s="21" t="b">
+      <c r="G7" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="O4" s="17"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="J5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="O5" s="17"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>673</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="O7" s="17"/>
+      <c r="L7" s="19"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G8" s="15"/>
+      <c r="G8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I302:I1048576">
@@ -4988,2440 +5208,2440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.77734375" style="2"/>
-    <col min="15" max="15" width="35.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.77734375" style="2"/>
-    <col min="19" max="19" width="27.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.77734375" style="2"/>
-    <col min="22" max="22" width="29.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="29.109375" style="10" customWidth="1"/>
-    <col min="30" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.77734375" style="1"/>
+    <col min="15" max="15" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.77734375" style="1"/>
+    <col min="19" max="19" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.77734375" style="1"/>
+    <col min="22" max="22" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="29.109375" style="9" customWidth="1"/>
+    <col min="30" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:29" s="5" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="9" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="8" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9" t="s">
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="8" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9" t="s">
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AB5" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="8" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9" t="s">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="8" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="s">
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AB7" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AC7" s="11" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="W8" s="12" t="s">
+      <c r="W8" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12" t="s">
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AA8" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="AB8" s="12" t="s">
+      <c r="AB8" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="AC8" s="12" t="s">
+      <c r="AC8" s="11" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="9" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="9" t="s">
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="AB9" s="12" t="s">
+      <c r="AB9" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="AC9" s="12" t="s">
+      <c r="AC9" s="11" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="N10" s="9" t="s">
+      <c r="L10" s="8"/>
+      <c r="N10" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="X10" s="12" t="s">
+      <c r="X10" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="9" t="s">
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="AB10" s="12" t="s">
+      <c r="AB10" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="AC10" s="12"/>
-    </row>
-    <row r="11" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="AC10" s="11"/>
+    </row>
+    <row r="11" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9" t="s">
+      <c r="S11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="W11" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="X11" s="12" t="s">
+      <c r="X11" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="9" t="s">
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="AB11" s="12" t="s">
+      <c r="AB11" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="AC11" s="12"/>
-    </row>
-    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="AC11" s="11"/>
+    </row>
+    <row r="12" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9" t="s">
+      <c r="S12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12" t="s">
+      <c r="W12" s="11"/>
+      <c r="X12" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="9" t="s">
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AB12" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="AC12" s="12"/>
-    </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="AC12" s="11"/>
+    </row>
+    <row r="13" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9" t="s">
+      <c r="S13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12" t="s">
+      <c r="W13" s="11"/>
+      <c r="X13" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12" t="s">
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="AB13" s="12" t="s">
+      <c r="AB13" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="AC13" s="12"/>
-    </row>
-    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="AC13" s="11"/>
+    </row>
+    <row r="14" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="S14" s="9"/>
-      <c r="V14" s="9" t="s">
+      <c r="S14" s="8"/>
+      <c r="V14" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12" t="s">
+      <c r="W14" s="11"/>
+      <c r="X14" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-    </row>
-    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="V15" s="9" t="s">
+      <c r="S15" s="8"/>
+      <c r="V15" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12" t="s">
+      <c r="W15" s="11"/>
+      <c r="X15" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-    </row>
-    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+    </row>
+    <row r="16" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="V16" s="9" t="s">
+      <c r="V16" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12" t="s">
+      <c r="W16" s="11"/>
+      <c r="X16" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-    </row>
-    <row r="17" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+    </row>
+    <row r="17" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="N17" s="9" t="s">
+      <c r="K17" s="8"/>
+      <c r="N17" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12" t="s">
+      <c r="W17" s="11"/>
+      <c r="X17" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-    </row>
-    <row r="18" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+    </row>
+    <row r="18" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="N18" s="9" t="s">
+      <c r="K18" s="8"/>
+      <c r="N18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12" t="s">
+      <c r="W18" s="11"/>
+      <c r="X18" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-    </row>
-    <row r="19" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+    </row>
+    <row r="19" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="N19" s="9" t="s">
+      <c r="K19" s="8"/>
+      <c r="N19" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12" t="s">
+      <c r="W19" s="11"/>
+      <c r="X19" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-    </row>
-    <row r="20" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+    </row>
+    <row r="20" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="N20" s="9" t="s">
+      <c r="K20" s="8"/>
+      <c r="N20" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12" t="s">
+      <c r="W20" s="11"/>
+      <c r="X20" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-    </row>
-    <row r="21" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+    </row>
+    <row r="21" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="N21" s="9" t="s">
+      <c r="K21" s="8"/>
+      <c r="N21" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="V21" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12" t="s">
+      <c r="W21" s="11"/>
+      <c r="X21" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-    </row>
-    <row r="22" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+    </row>
+    <row r="22" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12" t="s">
+      <c r="V22" s="8"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-    </row>
-    <row r="23" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+    </row>
+    <row r="23" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12" t="s">
+      <c r="V23" s="8"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-    </row>
-    <row r="24" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+    </row>
+    <row r="24" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="N24" s="9" t="s">
+      <c r="J24" s="8"/>
+      <c r="N24" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12" t="s">
+      <c r="V24" s="8"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-    </row>
-    <row r="25" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+    </row>
+    <row r="25" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="N25" s="9" t="s">
+      <c r="J25" s="8"/>
+      <c r="N25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12" t="s">
+      <c r="V25" s="8"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-    </row>
-    <row r="26" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+    </row>
+    <row r="26" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="N26" s="9" t="s">
+      <c r="J26" s="8"/>
+      <c r="N26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="V26" s="9"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12" t="s">
+      <c r="V26" s="8"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-    </row>
-    <row r="27" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+    </row>
+    <row r="27" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="N27" s="9" t="s">
+      <c r="J27" s="8"/>
+      <c r="N27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-    </row>
-    <row r="28" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+    </row>
+    <row r="28" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="N28" s="9" t="s">
+      <c r="J28" s="8"/>
+      <c r="N28" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-    </row>
-    <row r="29" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+    </row>
+    <row r="29" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="N29" s="9" t="s">
+      <c r="J29" s="8"/>
+      <c r="N29" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="P29" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-    </row>
-    <row r="30" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+    </row>
+    <row r="30" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="N30" s="9" t="s">
+      <c r="J30" s="8"/>
+      <c r="N30" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="9"/>
-      <c r="N31" s="9" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31" s="8"/>
+      <c r="N31" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="9" t="s">
+      <c r="O31" s="5"/>
+      <c r="P31" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="T31" s="6"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="H32" s="9" t="s">
+      <c r="F32" s="5"/>
+      <c r="H32" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="9"/>
-      <c r="N32" s="9" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="8"/>
+      <c r="N32" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="9" t="s">
+      <c r="O32" s="5"/>
+      <c r="P32" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="T32" s="6"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="H33" s="9" t="s">
+      <c r="F33" s="5"/>
+      <c r="H33" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="9"/>
-      <c r="N33" s="9" t="s">
+      <c r="I33" s="5"/>
+      <c r="J33" s="8"/>
+      <c r="N33" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="P33" s="9" t="s">
+      <c r="P33" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="T33" s="6"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="H34" s="9" t="s">
+      <c r="F34" s="5"/>
+      <c r="H34" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="9"/>
-      <c r="N34" s="9" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="8"/>
+      <c r="N34" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="P34" s="9" t="s">
+      <c r="P34" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="R34" s="6"/>
-      <c r="T34" s="6"/>
+      <c r="R34" s="5"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="H35" s="9" t="s">
+      <c r="F35" s="5"/>
+      <c r="H35" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="9"/>
-      <c r="N35" s="9" t="s">
+      <c r="I35" s="5"/>
+      <c r="J35" s="8"/>
+      <c r="N35" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="P35" s="9" t="s">
+      <c r="P35" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="T35" s="6"/>
+      <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="H36" s="9" t="s">
+      <c r="F36" s="5"/>
+      <c r="H36" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="9"/>
-      <c r="N36" s="9" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="8"/>
+      <c r="N36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="P36" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="H37" s="9" t="s">
+      <c r="F37" s="5"/>
+      <c r="H37" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="N37" s="9" t="s">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="N37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="P37" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="H38" s="9" t="s">
+      <c r="F38" s="5"/>
+      <c r="H38" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="N38" s="9" t="s">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="N38" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="P38" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="H39" s="9" t="s">
+      <c r="F39" s="5"/>
+      <c r="H39" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="N39" s="9" t="s">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="N39" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="P39" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="H40" s="9" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="H40" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="N40" s="9" t="s">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="N40" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="P40" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="H41" s="9" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="H41" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="N41" s="9" t="s">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="N41" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="P41" s="9" t="s">
+      <c r="P41" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="H42" s="9" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="H42" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="N42" s="9" t="s">
+      <c r="J42" s="5"/>
+      <c r="N42" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="P42" s="9" t="s">
+      <c r="P42" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="H43" s="9" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="H43" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="N43" s="9" t="s">
+      <c r="J43" s="5"/>
+      <c r="N43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="9" t="s">
+      <c r="P43" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="H44" s="9" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="H44" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="N44" s="9" t="s">
+      <c r="J44" s="5"/>
+      <c r="N44" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="P44" s="9" t="s">
+      <c r="P44" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="H45" s="9" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="H45" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="N45" s="9" t="s">
+      <c r="J45" s="5"/>
+      <c r="N45" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="P45" s="9" t="s">
+      <c r="P45" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="H46" s="9" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="H46" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="N46" s="9" t="s">
+      <c r="J46" s="5"/>
+      <c r="N46" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="P46" s="9" t="s">
+      <c r="P46" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="H47" s="9" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="H47" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="N47" s="9" t="s">
+      <c r="J47" s="5"/>
+      <c r="N47" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="P47" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="H48" s="9" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="H48" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="N48" s="9" t="s">
+      <c r="J48" s="5"/>
+      <c r="N48" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="P48" s="9" t="s">
+      <c r="P48" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="H49" s="9" t="s">
+      <c r="E49" s="5"/>
+      <c r="H49" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="N49" s="9" t="s">
+      <c r="J49" s="5"/>
+      <c r="N49" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="P49" s="6"/>
+      <c r="P49" s="5"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="H50" s="9" t="s">
+      <c r="E50" s="5"/>
+      <c r="H50" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="N50" s="9" t="s">
+      <c r="J50" s="5"/>
+      <c r="N50" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="P50" s="6"/>
+      <c r="P50" s="5"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>354</v>
       </c>
       <c r="E51"/>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="N51" s="9" t="s">
+      <c r="J51" s="5"/>
+      <c r="N51" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="P51" s="6"/>
+      <c r="P51" s="5"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>355</v>
       </c>
       <c r="E52"/>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="N52" s="6"/>
-      <c r="P52" s="6"/>
+      <c r="N52" s="5"/>
+      <c r="P52" s="5"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>356</v>
       </c>
       <c r="E53"/>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="N53" s="6"/>
-      <c r="P53" s="6"/>
+      <c r="N53" s="5"/>
+      <c r="P53" s="5"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E54"/>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="N54" s="6"/>
-      <c r="P54" s="6"/>
+      <c r="N54" s="5"/>
+      <c r="P54" s="5"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E55"/>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="P55" s="6"/>
+      <c r="P55" s="5"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="9"/>
+      <c r="B56" s="8"/>
       <c r="E56"/>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="P56" s="6"/>
+      <c r="P56" s="5"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="9"/>
+      <c r="B57" s="8"/>
       <c r="E57"/>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="P57" s="6"/>
+      <c r="P57" s="5"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="9"/>
-      <c r="H58" s="9" t="s">
+      <c r="B58" s="8"/>
+      <c r="H58" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="P58" s="6"/>
+      <c r="P58" s="5"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="9"/>
-      <c r="H59" s="9" t="s">
+      <c r="B59" s="8"/>
+      <c r="H59" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="P59" s="6"/>
+      <c r="P59" s="5"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="9"/>
-      <c r="H60" s="9" t="s">
+      <c r="B60" s="8"/>
+      <c r="H60" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="P60" s="6"/>
+      <c r="P60" s="5"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="9"/>
-      <c r="H61" s="9" t="s">
+      <c r="B61" s="8"/>
+      <c r="H61" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="P61" s="6"/>
+      <c r="P61" s="5"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="9"/>
-      <c r="H62" s="9" t="s">
+      <c r="B62" s="8"/>
+      <c r="H62" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="P62" s="6"/>
+      <c r="P62" s="5"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="9"/>
-      <c r="H63" s="9" t="s">
+      <c r="B63" s="8"/>
+      <c r="H63" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="P63" s="6"/>
+      <c r="P63" s="5"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="9"/>
-      <c r="H64" s="9" t="s">
+      <c r="B64" s="8"/>
+      <c r="H64" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="9"/>
-      <c r="H65" s="9" t="s">
+      <c r="B65" s="8"/>
+      <c r="H65" s="8" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="9"/>
-      <c r="H66" s="9" t="s">
+      <c r="B66" s="8"/>
+      <c r="H66" s="8" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-      <c r="H67" s="9" t="s">
+      <c r="B67" s="5"/>
+      <c r="H67" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-      <c r="H68" s="9" t="s">
+      <c r="B68" s="5"/>
+      <c r="H68" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
-      <c r="H69" s="9" t="s">
+      <c r="B69" s="5"/>
+      <c r="H69" s="8" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
-      <c r="H70" s="9" t="s">
+      <c r="B70" s="5"/>
+      <c r="H70" s="8" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="11"/>
-      <c r="H71" s="9" t="s">
+      <c r="B71" s="10"/>
+      <c r="H71" s="8" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="6"/>
-      <c r="H72" s="9" t="s">
+      <c r="B72" s="5"/>
+      <c r="H72" s="8" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="6"/>
-      <c r="H73" s="9" t="s">
+      <c r="B73" s="5"/>
+      <c r="H73" s="8" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="6"/>
-      <c r="H74" s="9" t="s">
+      <c r="B74" s="5"/>
+      <c r="H74" s="8" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="6"/>
-      <c r="H75" s="9" t="s">
+      <c r="B75" s="5"/>
+      <c r="H75" s="8" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="6"/>
-      <c r="H76" s="9" t="s">
+      <c r="B76" s="5"/>
+      <c r="H76" s="8" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="6"/>
-      <c r="H77" s="9" t="s">
+      <c r="B77" s="5"/>
+      <c r="H77" s="8" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="6"/>
-      <c r="H78" s="9" t="s">
+      <c r="B78" s="5"/>
+      <c r="H78" s="8" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="6"/>
-      <c r="H79" s="9" t="s">
+      <c r="B79" s="5"/>
+      <c r="H79" s="8" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="6"/>
-      <c r="H80" s="9" t="s">
+      <c r="B80" s="5"/>
+      <c r="H80" s="8" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="6"/>
-      <c r="H81" s="9" t="s">
+      <c r="B81" s="5"/>
+      <c r="H81" s="8" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="6"/>
-      <c r="H82" s="9" t="s">
+      <c r="B82" s="5"/>
+      <c r="H82" s="8" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
-      <c r="H83" s="9" t="s">
+      <c r="B83" s="5"/>
+      <c r="H83" s="8" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="6"/>
-      <c r="H84" s="9" t="s">
+      <c r="B84" s="5"/>
+      <c r="H84" s="8" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="8" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="8" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="8" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="8" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="8" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="8" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="8" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="8" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="8" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="8" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="8" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="8" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="8" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="8" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="8" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="8" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="8" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="8" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="8" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="8" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="8" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="8" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H108" s="9" t="s">
+      <c r="H108" s="8" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H109" s="9" t="s">
+      <c r="H109" s="8" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H110" s="9" t="s">
+      <c r="H110" s="8" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H111" s="9" t="s">
+      <c r="H111" s="8" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H112" s="9" t="s">
+      <c r="H112" s="8" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H113" s="9" t="s">
+      <c r="H113" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H114" s="9" t="s">
+      <c r="H114" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H115" s="9" t="s">
+      <c r="H115" s="8" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H116" s="9" t="s">
+      <c r="H116" s="8" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="8" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H118" s="9" t="s">
+      <c r="H118" s="8" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="8" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H120" s="9" t="s">
+      <c r="H120" s="8" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="8" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H122" s="9" t="s">
+      <c r="H122" s="8" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H124" s="9" t="s">
+      <c r="H124" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="8" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H126" s="9" t="s">
+      <c r="H126" s="8" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H127" s="9" t="s">
+      <c r="H127" s="8" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H128" s="9"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H129" s="9"/>
+      <c r="H129" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7470,62 +7690,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -2088,34 +2088,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit release verion- v7.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
 </t>
     </r>
@@ -2258,6 +2230,34 @@
         <scheme val="minor"/>
       </rPr>
       <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit release version- v7.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.</t>
     </r>
   </si>
 </sst>
@@ -2461,11 +2461,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4510,8 +4510,8 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:1" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>673</v>
+      <c r="A2" s="23" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -4540,15 +4540,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>674</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="A1" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -4953,20 +4953,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="A1" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
     <sheet name="Notifications" sheetId="25" r:id="rId2"/>
     <sheet name="Events" sheetId="24" r:id="rId3"/>
     <sheet name="TablesSheet" sheetId="26" state="hidden" r:id="rId4"/>
-    <sheet name="Alarms" sheetId="27" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="analytics">TablesSheet!$W$2:$W$155</definedName>
@@ -60,12 +59,12 @@
     <definedName name="VM_Shapes">#REF!</definedName>
     <definedName name="waf">TablesSheet!$V$2:$V$155</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="659">
   <si>
     <t>Region</t>
   </si>
@@ -88,12 +87,6 @@
     <t>objectstorage</t>
   </si>
   <si>
-    <t xml:space="preserve">Region </t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
@@ -109,54 +102,6 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>destinations</t>
-  </si>
-  <si>
-    <t>display_name</t>
-  </si>
-  <si>
-    <t>is_enabled</t>
-  </si>
-  <si>
-    <t>metric_compartment_id</t>
-  </si>
-  <si>
-    <t>namespace</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>severity</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>metric_compartment_id_in_subtree</t>
-  </si>
-  <si>
-    <t>pending_duration</t>
-  </si>
-  <si>
-    <t>repeat_notification_duration</t>
-  </si>
-  <si>
-    <t>resolution</t>
-  </si>
-  <si>
-    <t>resource_group</t>
-  </si>
-  <si>
-    <t>suppression_desc</t>
-  </si>
-  <si>
-    <t>time_suppress_from</t>
-  </si>
-  <si>
-    <t>time_suppress_until</t>
-  </si>
-  <si>
     <t>apigateway</t>
   </si>
   <si>
@@ -2072,12 +2017,6 @@
   </si>
   <si>
     <t>Network</t>
-  </si>
-  <si>
-    <t>Alerts for Internet Gateway Creation</t>
-  </si>
-  <si>
-    <t>Alerts for NSGs Modifications</t>
   </si>
   <si>
     <t>Defined Tags</t>
@@ -2259,6 +2198,15 @@
       <t xml:space="preserve">
 Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.</t>
     </r>
+  </si>
+  <si>
+    <t>Email Notification to Security team</t>
+  </si>
+  <si>
+    <t>Alerts for IGW and NSGs Creation</t>
+  </si>
+  <si>
+    <t>Alerts for IGWs and NSGs Creation</t>
   </si>
 </sst>
 </file>
@@ -2318,18 +2266,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2421,11 +2363,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2456,15 +2395,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4510,8 +4449,8 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:1" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>675</v>
+      <c r="A2" s="20" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -4530,392 +4469,392 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="13"/>
-    <col min="2" max="2" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="1" width="7.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="A1" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>671</v>
+      <c r="G2" s="18" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>672</v>
+      <c r="B4" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="B5" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="G6" s="19"/>
+      <c r="B6" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="G7" s="19"/>
+      <c r="B7" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4931,265 +4870,298 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="13"/>
-    <col min="2" max="2" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="32" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="1" width="8.77734375" style="10"/>
+    <col min="2" max="2" width="18.21875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A1" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>662</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="F4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="19" t="b">
+      <c r="B5" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G5" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="J4" s="19" t="b">
+      <c r="C6" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="G6" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="19" t="b">
+      <c r="B7" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="J5" s="19" t="b">
+      <c r="G7" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="J7" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="K7" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6" s="19" t="b">
+      <c r="B8" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="19" t="b">
+      <c r="G8" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="J8" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="L8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I302:I1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I300:I1048576">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>INDIRECT(H3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H300">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H298">
       <formula1>Headers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I4:I301">
+    <dataValidation type="list" allowBlank="1" sqref="I4:I299">
       <formula1>INDIRECT(H4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5224,2424 +5196,2424 @@
     <col min="19" max="19" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8.77734375" style="1"/>
     <col min="22" max="22" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="29.109375" style="9" customWidth="1"/>
+    <col min="23" max="29" width="29.109375" style="6" customWidth="1"/>
     <col min="30" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="5" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="T1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="V1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="W1" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="K2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="P2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="S2" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="V2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="E5" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC12" s="8"/>
+    </row>
+    <row r="13" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="AC13" s="8"/>
+    </row>
+    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="V14" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+    </row>
+    <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="AC1" s="9" t="s">
+      <c r="J15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="V15" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+    </row>
+    <row r="17" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+    </row>
+    <row r="18" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+    </row>
+    <row r="19" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+    </row>
+    <row r="20" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+    </row>
+    <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+    </row>
+    <row r="22" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+    </row>
+    <row r="23" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+    </row>
+    <row r="26" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="N26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="V26" s="5"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+    </row>
+    <row r="27" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+    </row>
+    <row r="28" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="N28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+    </row>
+    <row r="29" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="N29" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+    </row>
+    <row r="30" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="H32" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="H33" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="5"/>
+      <c r="N33" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="H34" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="5"/>
+      <c r="N34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="H35" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="5"/>
+      <c r="N35" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="H36" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="5"/>
+      <c r="N36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="H37" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="N37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="H38" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="N38" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="H39" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="N39" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="N40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="H41" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="N41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="H42" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="N42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="H43" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="N43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="H44" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="N44" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="H45" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="N45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="H46" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="N46" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="H47" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="N47" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="H48" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="N48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="H49" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="N49" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="H50" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="N50" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51"/>
+      <c r="H51" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="N51" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52"/>
+      <c r="H52" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E53"/>
+      <c r="H53" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54"/>
+      <c r="H54" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55"/>
+      <c r="H55" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="5"/>
+      <c r="E56"/>
+      <c r="H56" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="5"/>
+      <c r="E57"/>
+      <c r="H57" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+      <c r="H67" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+      <c r="H68" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+      <c r="H69" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+      <c r="H70" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="7"/>
+      <c r="H71" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+      <c r="H72" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="H73" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="H74" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+      <c r="H75" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+      <c r="H76" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+      <c r="H77" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="H78" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+      <c r="H79" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+      <c r="H80" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+      <c r="H81" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+      <c r="H82" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+      <c r="H83" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+      <c r="H84" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H85" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H86" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H87" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H88" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H89" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H90" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H91" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H92" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H93" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H94" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="AC2" s="8" t="s">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H95" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="AC3" s="8" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H96" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="AC4" s="8" t="s">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H97" s="5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="AC5" s="8" t="s">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H98" s="5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="AC6" s="8" t="s">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H99" s="5" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="AC7" s="11" t="s">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H100" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="AC8" s="11" t="s">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H101" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="AC9" s="11" t="s">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H102" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="N10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="AC10" s="11"/>
-    </row>
-    <row r="11" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="S11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="AC11" s="11"/>
-    </row>
-    <row r="12" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="S12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="AC12" s="11"/>
-    </row>
-    <row r="13" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="AC13" s="11"/>
-    </row>
-    <row r="14" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="S14" s="8"/>
-      <c r="V14" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-    </row>
-    <row r="15" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="S15" s="8"/>
-      <c r="V15" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-    </row>
-    <row r="16" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-    </row>
-    <row r="17" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="N17" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-    </row>
-    <row r="18" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="N18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-    </row>
-    <row r="19" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="N19" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-    </row>
-    <row r="20" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-    </row>
-    <row r="21" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="N21" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-    </row>
-    <row r="22" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="V22" s="8"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-    </row>
-    <row r="23" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-    </row>
-    <row r="24" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="N24" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="V24" s="8"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-    </row>
-    <row r="25" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="V25" s="8"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-    </row>
-    <row r="26" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="V26" s="8"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-    </row>
-    <row r="27" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-    </row>
-    <row r="28" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="N28" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-    </row>
-    <row r="29" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="N29" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-    </row>
-    <row r="30" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="N30" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="8"/>
-      <c r="N31" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="H32" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="8"/>
-      <c r="N32" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="H33" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="H34" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="8"/>
-      <c r="N34" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="R34" s="5"/>
-      <c r="T34" s="5"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="H35" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="8"/>
-      <c r="N35" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="T35" s="5"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="H36" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="8"/>
-      <c r="N36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="H37" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="N37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="H38" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="N38" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="H39" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="N39" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="H40" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="N40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="H41" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="N41" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="H42" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="N42" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="H43" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="N43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="H44" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="N44" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="H45" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="N45" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="H46" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="N46" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="H47" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="N47" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="H48" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="N48" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="H49" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="N49" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="P49" s="5"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="H50" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="N50" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E51"/>
-      <c r="H51" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="N51" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E52"/>
-      <c r="H52" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="N52" s="5"/>
-      <c r="P52" s="5"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E53"/>
-      <c r="H53" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="N53" s="5"/>
-      <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54"/>
-      <c r="H54" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="N54" s="5"/>
-      <c r="P54" s="5"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55"/>
-      <c r="H55" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="P55" s="5"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="8"/>
-      <c r="E56"/>
-      <c r="H56" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="P56" s="5"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="8"/>
-      <c r="E57"/>
-      <c r="H57" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="P57" s="5"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="8"/>
-      <c r="H58" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="P58" s="5"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="8"/>
-      <c r="H59" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="P59" s="5"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="8"/>
-      <c r="H60" s="8" t="s">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H103" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="P60" s="5"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="8"/>
-      <c r="H61" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="P61" s="5"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="8"/>
-      <c r="H62" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="8"/>
-      <c r="H63" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="P63" s="5"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="8"/>
-      <c r="H64" s="8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="8"/>
-      <c r="H65" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="8"/>
-      <c r="H66" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="5"/>
-      <c r="H67" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="5"/>
-      <c r="H68" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
-      <c r="H69" s="8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="5"/>
-      <c r="H70" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="10"/>
-      <c r="H71" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="5"/>
-      <c r="H72" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="5"/>
-      <c r="H73" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="5"/>
-      <c r="H74" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="5"/>
-      <c r="H75" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="5"/>
-      <c r="H76" s="8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="5"/>
-      <c r="H77" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="5"/>
-      <c r="H78" s="8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="5"/>
-      <c r="H79" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="5"/>
-      <c r="H80" s="8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="5"/>
-      <c r="H81" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="5"/>
-      <c r="H82" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="5"/>
-      <c r="H83" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="5"/>
-      <c r="H84" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H85" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H86" s="8" t="s">
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H104" s="5" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H87" s="8" t="s">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="5" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H88" s="8" t="s">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H89" s="8" t="s">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H90" s="8" t="s">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H91" s="8" t="s">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H109" s="5" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H92" s="8" t="s">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H110" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H93" s="8" t="s">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H111" s="5" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H94" s="8" t="s">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H112" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H95" s="8" t="s">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H113" s="5" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H96" s="8" t="s">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H97" s="8" t="s">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H115" s="5" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H98" s="8" t="s">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H116" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H99" s="8" t="s">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H117" s="5" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H100" s="8" t="s">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H101" s="8" t="s">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H119" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H102" s="8" t="s">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H120" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H103" s="8" t="s">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H121" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H104" s="8" t="s">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H105" s="8" t="s">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H106" s="8" t="s">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H107" s="8" t="s">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="5" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H108" s="8" t="s">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="5" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H109" s="8" t="s">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="5" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H110" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H111" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H112" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H113" s="8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H114" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H115" s="8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H116" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H117" s="8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H118" s="8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H119" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H120" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H121" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H122" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H123" s="8" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H124" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H125" s="8" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H126" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H127" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H128" s="8"/>
+      <c r="H128" s="5"/>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H129" s="8"/>
+      <c r="H129" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7678,79 +7650,4 @@
     <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ocifromnewgit\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CD3aaS\code\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_master\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUSINGLA\Desktop\Misc\CD3aaS\CD3 Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="666">
   <si>
     <t xml:space="preserve">
 Automation Toolkit release version- v7.0
@@ -2031,46 +2031,49 @@
     <t>updateautonomousvmcluster.end</t>
   </si>
   <si>
+    <t>NetworkTopic</t>
+  </si>
+  <si>
+    <t>SecurityTopic</t>
+  </si>
+  <si>
+    <t>abc@oracle.com</t>
+  </si>
+  <si>
+    <t>notify-on-network-gateways-changes</t>
+  </si>
+  <si>
+    <t>notify-on-security-list-changes</t>
+  </si>
+  <si>
+    <t>notify-on-vcn-changes</t>
+  </si>
+  <si>
+    <t>notify-on-nsg-changes</t>
+  </si>
+  <si>
+    <t>notify-on-iam-group-changes</t>
+  </si>
+  <si>
+    <t>notify-on-route-table-changes</t>
+  </si>
+  <si>
+    <t>notify-on-iam-policy-changes</t>
+  </si>
+  <si>
+    <t>notify-on-idp-changes</t>
+  </si>
+  <si>
+    <t>notify-on-iam-user-changes</t>
+  </si>
+  <si>
+    <t>notify-on-idp-group-mapping-changes</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
     <t>Security</t>
-  </si>
-  <si>
-    <t>NetworkTopic</t>
-  </si>
-  <si>
-    <t>SecurityTopic</t>
-  </si>
-  <si>
-    <t>abc@oracle.com</t>
-  </si>
-  <si>
-    <t>notify-on-network-gateways-changes</t>
-  </si>
-  <si>
-    <t>notify-on-security-list-changes</t>
-  </si>
-  <si>
-    <t>notify-on-vcn-changes</t>
-  </si>
-  <si>
-    <t>notify-on-nsg-changes</t>
-  </si>
-  <si>
-    <t>notify-on-iam-group-changes</t>
-  </si>
-  <si>
-    <t>notify-on-route-table-changes</t>
-  </si>
-  <si>
-    <t>notify-on-iam-policy-changes</t>
-  </si>
-  <si>
-    <t>notify-on-idp-changes</t>
-  </si>
-  <si>
-    <t>notify-on-iam-user-changes</t>
-  </si>
-  <si>
-    <t>notify-on-idp-group-mapping-changes</t>
   </si>
 </sst>
 </file>
@@ -4099,7 +4102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4124,8 +4127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4179,10 +4182,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>651</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>652</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -4191,7 +4194,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4200,10 +4203,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -4212,7 +4215,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4530,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4612,10 +4615,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>22</v>
@@ -4639,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>28</v>
@@ -4650,10 +4653,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>22</v>
@@ -4677,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>28</v>
@@ -4688,10 +4691,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>22</v>
@@ -4715,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>28</v>
@@ -4726,10 +4729,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
@@ -4753,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>28</v>
@@ -4764,10 +4767,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>22</v>
@@ -4791,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>28</v>
@@ -4802,10 +4805,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>22</v>
@@ -4829,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>28</v>
@@ -4840,10 +4843,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>22</v>
@@ -4867,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>28</v>
@@ -4878,10 +4881,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>22</v>
@@ -4905,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>28</v>
@@ -4916,10 +4919,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>22</v>
@@ -4943,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>28</v>
@@ -4954,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>22</v>
@@ -4981,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>28</v>
@@ -4992,10 +4995,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -5019,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>28</v>
@@ -5030,10 +5033,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>22</v>
@@ -5057,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>28</v>
@@ -5068,10 +5071,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>22</v>
@@ -5095,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>28</v>
@@ -5106,10 +5109,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>22</v>
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>28</v>
@@ -5144,10 +5147,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>22</v>
@@ -5171,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>28</v>
@@ -5182,10 +5185,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>22</v>
@@ -5209,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>28</v>
@@ -5220,10 +5223,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>22</v>
@@ -5247,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>28</v>
@@ -5258,10 +5261,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>22</v>
@@ -5285,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>28</v>
@@ -5296,10 +5299,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>22</v>
@@ -5323,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>28</v>
@@ -5334,10 +5337,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>22</v>
@@ -5361,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>28</v>
@@ -5372,10 +5375,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>22</v>
@@ -5399,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>28</v>
@@ -5410,10 +5413,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>22</v>
@@ -5437,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>28</v>
@@ -5448,10 +5451,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>22</v>
@@ -5475,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>28</v>
@@ -5486,10 +5489,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>22</v>
@@ -5513,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>28</v>
@@ -5524,10 +5527,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>22</v>
@@ -5551,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>28</v>
@@ -5562,10 +5565,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>55</v>
@@ -5589,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>28</v>
@@ -5600,10 +5603,10 @@
         <v>9</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>55</v>
@@ -5627,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>28</v>
@@ -5638,10 +5641,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>55</v>
@@ -5665,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>28</v>
@@ -5676,10 +5679,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>55</v>
@@ -5703,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>28</v>
@@ -5714,10 +5717,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>60</v>
@@ -5741,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>28</v>
@@ -5752,10 +5755,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>60</v>
@@ -5779,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>28</v>
@@ -5790,10 +5793,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>60</v>
@@ -5817,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>28</v>
@@ -5828,10 +5831,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>64</v>
@@ -5855,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>28</v>
@@ -5866,10 +5869,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>64</v>
@@ -5893,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>28</v>
@@ -5904,10 +5907,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>64</v>
@@ -5931,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>28</v>
@@ -5942,10 +5945,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>64</v>
@@ -5969,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>28</v>
@@ -5980,10 +5983,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>69</v>
@@ -6007,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -6016,10 +6019,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>69</v>
@@ -6043,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L40" s="10"/>
     </row>
@@ -6052,10 +6055,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>69</v>
@@ -6079,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L41" s="10"/>
     </row>
@@ -6088,10 +6091,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>69</v>
@@ -6115,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L42" s="10"/>
     </row>
@@ -6124,10 +6127,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>69</v>
@@ -6151,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L43" s="10"/>
     </row>
@@ -6160,10 +6163,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>76</v>
@@ -6187,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>28</v>
@@ -6198,10 +6201,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>76</v>
@@ -6225,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>28</v>
@@ -6236,10 +6239,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>76</v>
@@ -6263,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>28</v>
@@ -6274,10 +6277,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>76</v>
@@ -6301,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>28</v>
@@ -6312,10 +6315,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>81</v>
@@ -6339,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>28</v>
@@ -6350,10 +6353,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>81</v>
@@ -6377,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>28</v>
@@ -6388,10 +6391,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>81</v>
@@ -6415,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>28</v>
@@ -6426,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>85</v>
@@ -6453,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>28</v>
@@ -6464,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>85</v>
@@ -6491,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>28</v>
@@ -6502,10 +6505,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>85</v>
@@ -6529,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>28</v>
@@ -6540,10 +6543,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>89</v>
@@ -6567,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>28</v>
@@ -6578,10 +6581,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>89</v>
@@ -6605,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>28</v>
@@ -6616,10 +6619,10 @@
         <v>9</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>89</v>
@@ -6643,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>28</v>
@@ -6654,10 +6657,10 @@
         <v>9</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>89</v>
@@ -6681,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>28</v>
@@ -6692,10 +6695,10 @@
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>89</v>
@@ -6719,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>28</v>
@@ -6730,10 +6733,10 @@
         <v>9</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>95</v>
@@ -6757,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>28</v>
@@ -6768,10 +6771,10 @@
         <v>9</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>95</v>
@@ -6795,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>28</v>
@@ -6806,10 +6809,10 @@
         <v>9</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>95</v>
@@ -6833,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>28</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUSINGLA\Desktop\Misc\CD3aaS\CD3 Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="665">
   <si>
     <t xml:space="preserve">
 Automation Toolkit release version- v7.0
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>createdrg</t>
-  </si>
-  <si>
-    <t>CISTEST.CreatedBy=oracleidentitycloudservice/suruchi.singla@oracle.com</t>
   </si>
   <si>
     <t>deletedrg</t>
@@ -4127,7 +4124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4182,10 +4179,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -4194,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4203,10 +4200,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -4215,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4533,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4615,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>22</v>
@@ -4642,21 +4639,19 @@
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>22</v>
@@ -4674,27 +4669,25 @@
         <v>26</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>22</v>
@@ -4712,27 +4705,25 @@
         <v>26</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
@@ -4750,27 +4741,25 @@
         <v>26</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>22</v>
@@ -4788,27 +4777,25 @@
         <v>26</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>22</v>
@@ -4826,27 +4813,25 @@
         <v>26</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>22</v>
@@ -4864,27 +4849,25 @@
         <v>26</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>22</v>
@@ -4902,27 +4885,25 @@
         <v>26</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>22</v>
@@ -4940,27 +4921,25 @@
         <v>26</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>22</v>
@@ -4978,27 +4957,25 @@
         <v>26</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -5016,27 +4993,25 @@
         <v>26</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>22</v>
@@ -5054,27 +5029,25 @@
         <v>26</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>22</v>
@@ -5092,27 +5065,25 @@
         <v>26</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>22</v>
@@ -5130,27 +5101,25 @@
         <v>26</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>22</v>
@@ -5165,30 +5134,28 @@
         <v>25</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="J17" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>22</v>
@@ -5203,30 +5170,28 @@
         <v>25</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>22</v>
@@ -5241,30 +5206,28 @@
         <v>25</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>22</v>
@@ -5279,30 +5242,28 @@
         <v>25</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>22</v>
@@ -5317,30 +5278,28 @@
         <v>25</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="J21" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>22</v>
@@ -5355,30 +5314,28 @@
         <v>25</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>22</v>
@@ -5393,30 +5350,28 @@
         <v>25</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>22</v>
@@ -5431,30 +5386,28 @@
         <v>25</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>22</v>
@@ -5469,30 +5422,28 @@
         <v>25</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>22</v>
@@ -5507,30 +5458,28 @@
         <v>25</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>22</v>
@@ -5545,33 +5494,31 @@
         <v>25</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>23</v>
@@ -5586,30 +5533,28 @@
         <v>26</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>23</v>
@@ -5624,30 +5569,28 @@
         <v>26</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>23</v>
@@ -5662,30 +5605,28 @@
         <v>26</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>23</v>
@@ -5700,30 +5641,28 @@
         <v>26</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>23</v>
@@ -5738,30 +5677,28 @@
         <v>26</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>23</v>
@@ -5776,30 +5713,28 @@
         <v>26</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J33" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>23</v>
@@ -5814,30 +5749,28 @@
         <v>26</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J34" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>23</v>
@@ -5852,30 +5785,28 @@
         <v>26</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>23</v>
@@ -5890,30 +5821,28 @@
         <v>26</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J36" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>23</v>
@@ -5928,30 +5857,28 @@
         <v>26</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J37" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>23</v>
@@ -5966,30 +5893,28 @@
         <v>26</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J38" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>23</v>
@@ -6001,16 +5926,16 @@
         <v>25</v>
       </c>
       <c r="H39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="J39" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -6019,13 +5944,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>23</v>
@@ -6037,16 +5962,16 @@
         <v>25</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J40" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L40" s="10"/>
     </row>
@@ -6055,13 +5980,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>23</v>
@@ -6073,16 +5998,16 @@
         <v>25</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J41" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L41" s="10"/>
     </row>
@@ -6091,13 +6016,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>23</v>
@@ -6109,16 +6034,16 @@
         <v>25</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L42" s="10"/>
     </row>
@@ -6127,13 +6052,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>23</v>
@@ -6145,16 +6070,16 @@
         <v>25</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J43" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L43" s="10"/>
     </row>
@@ -6163,13 +6088,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>23</v>
@@ -6184,30 +6109,28 @@
         <v>26</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J44" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>23</v>
@@ -6222,30 +6145,28 @@
         <v>26</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J45" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>23</v>
@@ -6260,30 +6181,28 @@
         <v>26</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J46" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>23</v>
@@ -6298,30 +6217,28 @@
         <v>26</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J47" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>23</v>
@@ -6333,33 +6250,31 @@
         <v>25</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J48" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>23</v>
@@ -6371,33 +6286,31 @@
         <v>25</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>23</v>
@@ -6409,33 +6322,31 @@
         <v>25</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J50" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>23</v>
@@ -6447,33 +6358,31 @@
         <v>25</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J51" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>23</v>
@@ -6485,33 +6394,31 @@
         <v>25</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J52" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L52" s="10"/>
     </row>
     <row r="53" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>23</v>
@@ -6523,33 +6430,31 @@
         <v>25</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J53" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L53" s="10"/>
     </row>
     <row r="54" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>23</v>
@@ -6561,33 +6466,31 @@
         <v>25</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>23</v>
@@ -6599,33 +6502,31 @@
         <v>25</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J55" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>23</v>
@@ -6637,33 +6538,31 @@
         <v>25</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L56" s="10"/>
     </row>
     <row r="57" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>23</v>
@@ -6675,33 +6574,31 @@
         <v>25</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J57" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>23</v>
@@ -6713,33 +6610,31 @@
         <v>25</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J58" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>23</v>
@@ -6751,33 +6646,31 @@
         <v>25</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J59" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L59" s="10"/>
     </row>
     <row r="60" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>23</v>
@@ -6789,33 +6682,31 @@
         <v>25</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J60" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>23</v>
@@ -6827,20 +6718,18 @@
         <v>25</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J61" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L61" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6895,1015 +6784,1015 @@
   <sheetData>
     <row r="1" spans="1:29" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>115</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>116</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>117</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>122</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" t="s">
         <v>131</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>132</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" t="s">
         <v>140</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" t="s">
         <v>158</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>159</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" t="s">
         <v>167</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" t="s">
         <v>185</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>186</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" t="s">
         <v>194</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" t="s">
         <v>211</v>
       </c>
-      <c r="I5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" t="s">
         <v>236</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>237</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" t="s">
         <v>245</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" t="s">
         <v>262</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>263</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" t="s">
         <v>270</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" t="s">
         <v>285</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>286</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" t="s">
         <v>305</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>306</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" t="s">
         <v>323</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>324</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="L10" s="2"/>
       <c r="N10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" t="s">
         <v>340</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>341</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" t="s">
         <v>355</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="P12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" t="s">
         <v>368</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J13" t="s">
-        <v>342</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" t="s">
         <v>380</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>381</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -7913,42 +7802,42 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" t="s">
         <v>390</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -7958,41 +7847,41 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" t="s">
         <v>401</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="P16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -8002,39 +7891,39 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" t="s">
         <v>412</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -8045,36 +7934,36 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" t="s">
         <v>421</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -8085,36 +7974,36 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" t="s">
         <v>430</v>
       </c>
-      <c r="I19" t="s">
-        <v>431</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -8124,33 +8013,33 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -8160,33 +8049,33 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -8196,30 +8085,30 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -8229,30 +8118,30 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -8262,28 +8151,28 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="J24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -8293,28 +8182,28 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="J25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -8324,28 +8213,28 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="J26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -8355,811 +8244,811 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="J27" s="2"/>
       <c r="N27" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="J28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="J29" s="2"/>
       <c r="N29" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="J30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="J31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="J32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="J33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="J34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="J35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="J36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="P37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="N39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="P42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="P43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="N45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="N46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="N47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="N48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="N49" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="N50" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="N51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H67" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H68" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H69" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H70" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="H71" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H72" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H74" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H75" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H76" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H77" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H78" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H79" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H80" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H81" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H82" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H83" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H84" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H86" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H87" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H88" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H89" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H90" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H91" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H92" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H93" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H94" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H95" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H96" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H97" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H98" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H99" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H100" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H101" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H102" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H103" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H104" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H105" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H106" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H107" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H108" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H109" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H110" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H111" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H112" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H113" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H114" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H115" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H116" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H117" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H118" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H119" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H120" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H121" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H122" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H123" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H124" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H125" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H126" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H127" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.35">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUSINGLA\Desktop\Misc\CD3aaS\CD3 Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_master\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="665">
   <si>
     <t xml:space="preserve">
 Automation Toolkit release version- v7.0
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>createdrg</t>
-  </si>
-  <si>
-    <t>CISTEST.CreatedBy=oracleidentitycloudservice/suruchi.singla@oracle.com</t>
   </si>
   <si>
     <t>deletedrg</t>
@@ -4127,7 +4124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4182,10 +4179,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -4194,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4203,10 +4200,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -4215,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4533,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4615,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>22</v>
@@ -4642,21 +4639,19 @@
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>22</v>
@@ -4674,27 +4669,25 @@
         <v>26</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>22</v>
@@ -4712,27 +4705,25 @@
         <v>26</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
@@ -4750,27 +4741,25 @@
         <v>26</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>22</v>
@@ -4788,27 +4777,25 @@
         <v>26</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>22</v>
@@ -4826,27 +4813,25 @@
         <v>26</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>22</v>
@@ -4864,27 +4849,25 @@
         <v>26</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>22</v>
@@ -4902,27 +4885,25 @@
         <v>26</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>22</v>
@@ -4940,27 +4921,25 @@
         <v>26</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>22</v>
@@ -4978,27 +4957,25 @@
         <v>26</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -5016,27 +4993,25 @@
         <v>26</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>22</v>
@@ -5054,27 +5029,25 @@
         <v>26</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>22</v>
@@ -5092,27 +5065,25 @@
         <v>26</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>22</v>
@@ -5130,27 +5101,25 @@
         <v>26</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>22</v>
@@ -5165,30 +5134,28 @@
         <v>25</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="J17" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>22</v>
@@ -5203,30 +5170,28 @@
         <v>25</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>22</v>
@@ -5241,30 +5206,28 @@
         <v>25</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>22</v>
@@ -5279,30 +5242,28 @@
         <v>25</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>22</v>
@@ -5317,30 +5278,28 @@
         <v>25</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="J21" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>22</v>
@@ -5355,30 +5314,28 @@
         <v>25</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>22</v>
@@ -5393,30 +5350,28 @@
         <v>25</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>22</v>
@@ -5431,30 +5386,28 @@
         <v>25</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>22</v>
@@ -5469,30 +5422,28 @@
         <v>25</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>22</v>
@@ -5507,30 +5458,28 @@
         <v>25</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>22</v>
@@ -5545,33 +5494,31 @@
         <v>25</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>23</v>
@@ -5586,30 +5533,28 @@
         <v>26</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>23</v>
@@ -5624,30 +5569,28 @@
         <v>26</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>23</v>
@@ -5662,30 +5605,28 @@
         <v>26</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>23</v>
@@ -5700,30 +5641,28 @@
         <v>26</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>23</v>
@@ -5738,30 +5677,28 @@
         <v>26</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>23</v>
@@ -5776,30 +5713,28 @@
         <v>26</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J33" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>23</v>
@@ -5814,30 +5749,28 @@
         <v>26</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J34" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>23</v>
@@ -5852,30 +5785,28 @@
         <v>26</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>23</v>
@@ -5890,30 +5821,28 @@
         <v>26</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J36" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>23</v>
@@ -5928,30 +5857,28 @@
         <v>26</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J37" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>23</v>
@@ -5966,30 +5893,28 @@
         <v>26</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J38" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>23</v>
@@ -6001,16 +5926,16 @@
         <v>25</v>
       </c>
       <c r="H39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="J39" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -6019,13 +5944,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>23</v>
@@ -6037,16 +5962,16 @@
         <v>25</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J40" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L40" s="10"/>
     </row>
@@ -6055,13 +5980,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>23</v>
@@ -6073,16 +5998,16 @@
         <v>25</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J41" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L41" s="10"/>
     </row>
@@ -6091,13 +6016,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>23</v>
@@ -6109,16 +6034,16 @@
         <v>25</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L42" s="10"/>
     </row>
@@ -6127,13 +6052,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>23</v>
@@ -6145,16 +6070,16 @@
         <v>25</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J43" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L43" s="10"/>
     </row>
@@ -6163,13 +6088,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>23</v>
@@ -6184,30 +6109,28 @@
         <v>26</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J44" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>23</v>
@@ -6222,30 +6145,28 @@
         <v>26</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J45" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>23</v>
@@ -6260,30 +6181,28 @@
         <v>26</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J46" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>23</v>
@@ -6298,30 +6217,28 @@
         <v>26</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J47" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>23</v>
@@ -6333,33 +6250,31 @@
         <v>25</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J48" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>23</v>
@@ -6371,33 +6286,31 @@
         <v>25</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>23</v>
@@ -6409,33 +6322,31 @@
         <v>25</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J50" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>23</v>
@@ -6447,33 +6358,31 @@
         <v>25</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J51" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>23</v>
@@ -6485,33 +6394,31 @@
         <v>25</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J52" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L52" s="10"/>
     </row>
     <row r="53" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>23</v>
@@ -6523,33 +6430,31 @@
         <v>25</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J53" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L53" s="10"/>
     </row>
     <row r="54" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>23</v>
@@ -6561,33 +6466,31 @@
         <v>25</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>23</v>
@@ -6599,33 +6502,31 @@
         <v>25</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J55" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>23</v>
@@ -6637,33 +6538,31 @@
         <v>25</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L56" s="10"/>
     </row>
     <row r="57" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>23</v>
@@ -6675,33 +6574,31 @@
         <v>25</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J57" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>23</v>
@@ -6713,33 +6610,31 @@
         <v>25</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J58" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>23</v>
@@ -6751,33 +6646,31 @@
         <v>25</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J59" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L59" s="10"/>
     </row>
     <row r="60" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>23</v>
@@ -6789,33 +6682,31 @@
         <v>25</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J60" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>23</v>
@@ -6827,20 +6718,18 @@
         <v>25</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J61" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="L61" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6895,1015 +6784,1015 @@
   <sheetData>
     <row r="1" spans="1:29" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>115</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>116</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>117</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>122</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" t="s">
         <v>131</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>132</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" t="s">
         <v>140</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" t="s">
         <v>158</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>159</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" t="s">
         <v>167</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" t="s">
         <v>185</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>186</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" t="s">
         <v>194</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" t="s">
         <v>211</v>
       </c>
-      <c r="I5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" t="s">
         <v>236</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>237</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" t="s">
         <v>245</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" t="s">
         <v>262</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>263</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" t="s">
         <v>270</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" t="s">
         <v>285</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>286</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" t="s">
         <v>305</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>306</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" t="s">
         <v>323</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>324</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="L10" s="2"/>
       <c r="N10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" t="s">
         <v>340</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>341</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" t="s">
         <v>355</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="P12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" t="s">
         <v>368</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J13" t="s">
-        <v>342</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" t="s">
         <v>380</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>381</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -7913,42 +7802,42 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" t="s">
         <v>390</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -7958,41 +7847,41 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" t="s">
         <v>401</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="P16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -8002,39 +7891,39 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" t="s">
         <v>412</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -8045,36 +7934,36 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" t="s">
         <v>421</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -8085,36 +7974,36 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" t="s">
         <v>430</v>
       </c>
-      <c r="I19" t="s">
-        <v>431</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -8124,33 +8013,33 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -8160,33 +8049,33 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -8196,30 +8085,30 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -8229,30 +8118,30 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -8262,28 +8151,28 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="J24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -8293,28 +8182,28 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="J25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -8324,28 +8213,28 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="J26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -8355,811 +8244,811 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="J27" s="2"/>
       <c r="N27" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="J28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="J29" s="2"/>
       <c r="N29" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="J30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="J31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="J32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="J33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="J34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="J35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="J36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="P37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="N39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="P42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="P43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="N45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="N46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="N47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="N48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="N49" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="N50" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="N51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H67" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H68" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H69" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H70" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="H71" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H72" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H74" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H75" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H76" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H77" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H78" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H79" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H80" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H81" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H82" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H83" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H84" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H86" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H87" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H88" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H89" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H90" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H91" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H92" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H93" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H94" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H95" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H96" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H97" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H98" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H99" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H100" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H101" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H102" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H103" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H104" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H105" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H106" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H107" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H108" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H109" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H110" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H111" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H112" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H113" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H114" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H115" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H116" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H117" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H118" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H119" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H120" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H121" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H122" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H123" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H124" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H125" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H126" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H127" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.35">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUSINGLA\Desktop\Misc\CD3aaS\CD3 Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -4099,7 +4099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4530,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="685">
   <si>
     <t xml:space="preserve">
 Automation Toolkit release version- v7.0
@@ -2071,6 +2071,66 @@
   </si>
   <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>identitycontrolplane</t>
+  </si>
+  <si>
+    <t>addusertogroup</t>
+  </si>
+  <si>
+    <t>creategroup</t>
+  </si>
+  <si>
+    <t>deletegroup</t>
+  </si>
+  <si>
+    <t>removeuserfromgroup</t>
+  </si>
+  <si>
+    <t>updategroup</t>
+  </si>
+  <si>
+    <t>createpolicy</t>
+  </si>
+  <si>
+    <t>deletepolicy</t>
+  </si>
+  <si>
+    <t>updatepolicy</t>
+  </si>
+  <si>
+    <t>createidentityprovider</t>
+  </si>
+  <si>
+    <t>deleteidentityprovider</t>
+  </si>
+  <si>
+    <t>updateidentityprovider</t>
+  </si>
+  <si>
+    <t>createuser</t>
+  </si>
+  <si>
+    <t>deleteuser</t>
+  </si>
+  <si>
+    <t>updateuser</t>
+  </si>
+  <si>
+    <t>updateusercapabilities</t>
+  </si>
+  <si>
+    <t>updateuserstate</t>
+  </si>
+  <si>
+    <t>createidpgroupmapping</t>
+  </si>
+  <si>
+    <t>deleteidpgroupmapping</t>
+  </si>
+  <si>
+    <t>updateidpgroupmapping</t>
   </si>
 </sst>
 </file>
@@ -4530,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5926,10 +5986,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>70</v>
+        <v>666</v>
       </c>
       <c r="J39" s="10" t="b">
         <v>1</v>
@@ -5962,10 +6022,10 @@
         <v>25</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>71</v>
+        <v>667</v>
       </c>
       <c r="J40" s="10" t="b">
         <v>1</v>
@@ -5998,10 +6058,10 @@
         <v>25</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>72</v>
+        <v>668</v>
       </c>
       <c r="J41" s="10" t="b">
         <v>1</v>
@@ -6034,10 +6094,10 @@
         <v>25</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>73</v>
+        <v>669</v>
       </c>
       <c r="J42" s="10" t="b">
         <v>1</v>
@@ -6070,10 +6130,10 @@
         <v>25</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>74</v>
+        <v>670</v>
       </c>
       <c r="J43" s="10" t="b">
         <v>1</v>
@@ -6250,10 +6310,10 @@
         <v>25</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>81</v>
+        <v>671</v>
       </c>
       <c r="J48" s="10" t="b">
         <v>1</v>
@@ -6286,10 +6346,10 @@
         <v>25</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>82</v>
+        <v>672</v>
       </c>
       <c r="J49" s="10" t="b">
         <v>1</v>
@@ -6322,10 +6382,10 @@
         <v>25</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>83</v>
+        <v>673</v>
       </c>
       <c r="J50" s="10" t="b">
         <v>1</v>
@@ -6358,10 +6418,10 @@
         <v>25</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>85</v>
+        <v>674</v>
       </c>
       <c r="J51" s="10" t="b">
         <v>1</v>
@@ -6394,10 +6454,10 @@
         <v>25</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>86</v>
+        <v>675</v>
       </c>
       <c r="J52" s="10" t="b">
         <v>1</v>
@@ -6430,10 +6490,10 @@
         <v>25</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>87</v>
+        <v>676</v>
       </c>
       <c r="J53" s="10" t="b">
         <v>1</v>
@@ -6466,10 +6526,10 @@
         <v>25</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>89</v>
+        <v>677</v>
       </c>
       <c r="J54" s="10" t="b">
         <v>1</v>
@@ -6502,10 +6562,10 @@
         <v>25</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>90</v>
+        <v>678</v>
       </c>
       <c r="J55" s="10" t="b">
         <v>1</v>
@@ -6538,10 +6598,10 @@
         <v>25</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>91</v>
+        <v>679</v>
       </c>
       <c r="J56" s="10" t="b">
         <v>1</v>
@@ -6574,10 +6634,10 @@
         <v>25</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>92</v>
+        <v>680</v>
       </c>
       <c r="J57" s="10" t="b">
         <v>1</v>
@@ -6610,10 +6670,10 @@
         <v>25</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>93</v>
+        <v>681</v>
       </c>
       <c r="J58" s="10" t="b">
         <v>1</v>
@@ -6646,10 +6706,10 @@
         <v>25</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>95</v>
+        <v>682</v>
       </c>
       <c r="J59" s="10" t="b">
         <v>1</v>
@@ -6682,10 +6742,10 @@
         <v>25</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>96</v>
+        <v>683</v>
       </c>
       <c r="J60" s="10" t="b">
         <v>1</v>
@@ -6718,10 +6778,10 @@
         <v>25</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>97</v>
+        <v>684</v>
       </c>
       <c r="J61" s="10" t="b">
         <v>1</v>
@@ -6755,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -59,12 +59,12 @@
     <definedName name="VM_Shapes">#REF!</definedName>
     <definedName name="waf">TablesSheet!$V$2:$V$155</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="666">
   <si>
     <t xml:space="preserve">
 Automation Toolkit release version- v7.0
@@ -288,21 +288,6 @@
     <t>identityControlPlane</t>
   </si>
   <si>
-    <t>AddUserToGroup</t>
-  </si>
-  <si>
-    <t>CreateGroup</t>
-  </si>
-  <si>
-    <t>DeleteGroup</t>
-  </si>
-  <si>
-    <t>RemoveUserFromGroup</t>
-  </si>
-  <si>
-    <t>UpdateGroup</t>
-  </si>
-  <si>
     <t>Sends notification when route tables are created, updated, deleted or moved.</t>
   </si>
   <si>
@@ -321,57 +306,15 @@
     <t>Sends notification when IAM policies are created, updated or deleted.</t>
   </si>
   <si>
-    <t>CreatePolicy</t>
-  </si>
-  <si>
-    <t>DeletePolicy</t>
-  </si>
-  <si>
-    <t>UpdatePolicy</t>
-  </si>
-  <si>
     <t>Sends notification when Identity Providers are created, updated or deleted.</t>
   </si>
   <si>
-    <t>CreateIdentityProvider</t>
-  </si>
-  <si>
-    <t>DeleteIdentityProvider</t>
-  </si>
-  <si>
-    <t>UpdateIdentityProvider</t>
-  </si>
-  <si>
     <t>Sends notification when IAM users are created, updated or deleted.</t>
   </si>
   <si>
-    <t>CreateUser</t>
-  </si>
-  <si>
-    <t>DeleteUser</t>
-  </si>
-  <si>
-    <t>UpdateUser</t>
-  </si>
-  <si>
-    <t>UpdateUserCapabilities</t>
-  </si>
-  <si>
-    <t>UpdateUserState</t>
-  </si>
-  <si>
     <t>Sends notification when Identity Provider Group Mappings are created, updated or deleted.</t>
   </si>
   <si>
-    <t>CreateIdpGroupMapping</t>
-  </si>
-  <si>
-    <t>DeleteIdpGroupMapping</t>
-  </si>
-  <si>
-    <t>UpdateIdpGroupMapping</t>
-  </si>
-  <si>
     <t>apigateway</t>
   </si>
   <si>
@@ -411,9 +354,6 @@
     <t>healthchecks</t>
   </si>
   <si>
-    <t>compartmentsControlPlane</t>
-  </si>
-  <si>
     <t>notification</t>
   </si>
   <si>
@@ -432,9 +372,6 @@
     <t>blockchain</t>
   </si>
   <si>
-    <t>DataSafeInstancesControlPlane</t>
-  </si>
-  <si>
     <t>digitalassistant</t>
   </si>
   <si>
@@ -486,12 +423,6 @@
     <t>createhttpmonitor</t>
   </si>
   <si>
-    <t>UpdateAuthenticationPolicy</t>
-  </si>
-  <si>
-    <t>AccountBootstrapManagedCompartment</t>
-  </si>
-  <si>
     <t>changedhcpoptionscompartment</t>
   </si>
   <si>
@@ -513,9 +444,6 @@
     <t>changeplatformcompartment</t>
   </si>
   <si>
-    <t>EnableDataSafeService.begin</t>
-  </si>
-  <si>
     <t>changeodacompartment.begin</t>
   </si>
   <si>
@@ -567,12 +495,6 @@
     <t>deletehttpmonitor</t>
   </si>
   <si>
-    <t>CreateAuthToken</t>
-  </si>
-  <si>
-    <t>CreateManagedCompartment</t>
-  </si>
-  <si>
     <t>createdhcpoptions</t>
   </si>
   <si>
@@ -594,9 +516,6 @@
     <t>createplatforminstance.begin</t>
   </si>
   <si>
-    <t>EnableDataSafeService.end</t>
-  </si>
-  <si>
     <t>changeodacompartment.end</t>
   </si>
   <si>
@@ -648,12 +567,6 @@
     <t>updatehttpmonitor</t>
   </si>
   <si>
-    <t>CreateCustomerSecretKey</t>
-  </si>
-  <si>
-    <t>ListManagedCompartments</t>
-  </si>
-  <si>
     <t>deletedhcpoptions</t>
   </si>
   <si>
@@ -723,12 +636,6 @@
     <t>createpingmonitor</t>
   </si>
   <si>
-    <t>CreateOrResetPassword</t>
-  </si>
-  <si>
-    <t>CreateCompartment</t>
-  </si>
-  <si>
     <t>updatedhcpoptions</t>
   </si>
   <si>
@@ -801,12 +708,6 @@
     <t>deletepingmonitor</t>
   </si>
   <si>
-    <t>CreateSmtpCredential</t>
-  </si>
-  <si>
-    <t>DeleteCompartment</t>
-  </si>
-  <si>
     <t xml:space="preserve">deleteservicegateway.begin </t>
   </si>
   <si>
@@ -879,12 +780,6 @@
     <t>updatepingmonitor</t>
   </si>
   <si>
-    <t>CreateSwiftPassword</t>
-  </si>
-  <si>
-    <t>MoveCompartment</t>
-  </si>
-  <si>
     <t>createtopic</t>
   </si>
   <si>
@@ -945,12 +840,6 @@
     <t>updatefunction</t>
   </si>
   <si>
-    <t>DeleteApiKey</t>
-  </si>
-  <si>
-    <t>UpdateCompartment</t>
-  </si>
-  <si>
     <t>deletetopic</t>
   </si>
   <si>
@@ -1002,12 +891,6 @@
     <t>createmounttarget</t>
   </si>
   <si>
-    <t>DeleteAuthToken</t>
-  </si>
-  <si>
-    <t>GetCapabilities</t>
-  </si>
-  <si>
     <t>movetopic</t>
   </si>
   <si>
@@ -1056,12 +939,6 @@
     <t>deletemounttarget</t>
   </si>
   <si>
-    <t>DeleteCustomerSecretKey</t>
-  </si>
-  <si>
-    <t>CreateTenancy</t>
-  </si>
-  <si>
     <t>updatetopic</t>
   </si>
   <si>
@@ -1107,12 +984,6 @@
     <t>updatemounttarget</t>
   </si>
   <si>
-    <t>DeleteSmtpCredential</t>
-  </si>
-  <si>
-    <t>GetAccountByEntitlementId</t>
-  </si>
-  <si>
     <t>deleteaddresslist</t>
   </si>
   <si>
@@ -1149,12 +1020,6 @@
     <t>createexport</t>
   </si>
   <si>
-    <t>DeleteSwiftPassword</t>
-  </si>
-  <si>
-    <t>CreateRegionSubscription</t>
-  </si>
-  <si>
     <t>updateaddresslist</t>
   </si>
   <si>
@@ -1188,9 +1053,6 @@
     <t>deleteexport</t>
   </si>
   <si>
-    <t>UpdateAuthToken</t>
-  </si>
-  <si>
     <t>changecustomprotectionrulecompartment</t>
   </si>
   <si>
@@ -1257,9 +1119,6 @@
     <t>deleteexportset</t>
   </si>
   <si>
-    <t>UpdateCustomerSecretKey</t>
-  </si>
-  <si>
     <t>deletecustomprotectionrule</t>
   </si>
   <si>
@@ -1290,9 +1149,6 @@
     <t>updateexportset</t>
   </si>
   <si>
-    <t>UpdateSmtpCredential</t>
-  </si>
-  <si>
     <t>updatecustomprotectionrule</t>
   </si>
   <si>
@@ -1320,9 +1176,6 @@
     <t>createtransferapplianceentitlement</t>
   </si>
   <si>
-    <t>UpdateSwiftPassword</t>
-  </si>
-  <si>
     <t>updatewaaspolicycustomprotectionrules</t>
   </si>
   <si>
@@ -1347,9 +1200,6 @@
     <t>updatetransferapplianceentitlement</t>
   </si>
   <si>
-    <t>UploadApiKey</t>
-  </si>
-  <si>
     <t>changecertificatecompartment</t>
   </si>
   <si>
@@ -1371,9 +1221,6 @@
     <t>updatemodel</t>
   </si>
   <si>
-    <t>CreateDynamicGroup</t>
-  </si>
-  <si>
     <t>createcertificate</t>
   </si>
   <si>
@@ -1395,9 +1242,6 @@
     <t>addapplianceexportjob</t>
   </si>
   <si>
-    <t>DeleteDynamicGroup</t>
-  </si>
-  <si>
     <t>deletecertificate</t>
   </si>
   <si>
@@ -1419,9 +1263,6 @@
     <t>updateapplianceexportjob</t>
   </si>
   <si>
-    <t>UpdateDynamicGroup</t>
-  </si>
-  <si>
     <t>updatecertificate</t>
   </si>
   <si>
@@ -1530,9 +1371,6 @@
     <t>autonomous.container.database.instance.create.begin</t>
   </si>
   <si>
-    <t>AddUserToIdpGroup</t>
-  </si>
-  <si>
     <t>changepublicipcompartment</t>
   </si>
   <si>
@@ -1563,9 +1401,6 @@
     <t>autonomous.container.database.maintenance.begin</t>
   </si>
   <si>
-    <t>CreateIdentityProviderGroup</t>
-  </si>
-  <si>
     <t>deletepublicip</t>
   </si>
   <si>
@@ -1596,9 +1431,6 @@
     <t>autonomous.container.database.maintenance.reminder</t>
   </si>
   <si>
-    <t>CreateIdpUser</t>
-  </si>
-  <si>
     <t>updatebootvolume</t>
   </si>
   <si>
@@ -1617,9 +1449,6 @@
     <t>restartautonomouscontainerdatabase.begin</t>
   </si>
   <si>
-    <t>DeleteIdentityProviderGroup</t>
-  </si>
-  <si>
     <t>updatebootvolume.end</t>
   </si>
   <si>
@@ -1638,9 +1467,6 @@
     <t>autonomous.container.database.restore.begin</t>
   </si>
   <si>
-    <t>DeleteIdpUser</t>
-  </si>
-  <si>
     <t>updatebootvolumekmskey.end</t>
   </si>
   <si>
@@ -1650,9 +1476,6 @@
     <t>autonomous.container.database.restore.end</t>
   </si>
   <si>
-    <t>RemoveUserFromIdpGroup</t>
-  </si>
-  <si>
     <t>changebootvolumebackupcompartment</t>
   </si>
   <si>
@@ -1662,9 +1485,6 @@
     <t>terminateautonomouscontainerdatabase.begin</t>
   </si>
   <si>
-    <t>ResetIdpScimClient</t>
-  </si>
-  <si>
     <t>createbootvolumebackup.begin</t>
   </si>
   <si>
@@ -1692,9 +1512,6 @@
     <t>autonomous.container.database.instance.update.end</t>
   </si>
   <si>
-    <t>ActivateMfaTotpDevice</t>
-  </si>
-  <si>
     <t>deletesubnet</t>
   </si>
   <si>
@@ -1704,9 +1521,6 @@
     <t>changeautonomousexadatainfrastructurecompartment.begin</t>
   </si>
   <si>
-    <t>CreateMfaTotpDevice</t>
-  </si>
-  <si>
     <t>updatesubnet</t>
   </si>
   <si>
@@ -1716,18 +1530,12 @@
     <t>autonomous.exadata.infrastructure.instance.create.begin</t>
   </si>
   <si>
-    <t>DeleteMfaTotpDevice</t>
-  </si>
-  <si>
     <t>changevolumegroupcompartment</t>
   </si>
   <si>
     <t>autonomous.exadata.infrastructure.instance.create.end</t>
   </si>
   <si>
-    <t>GenerateTotpSeed</t>
-  </si>
-  <si>
     <t>changevolumegroupbackupcompartment</t>
   </si>
   <si>
@@ -2131,6 +1939,141 @@
   </si>
   <si>
     <t>updateidpgroupmapping</t>
+  </si>
+  <si>
+    <t>datasafeinstancescontrolplane</t>
+  </si>
+  <si>
+    <t>enabledatasafeservice.begin</t>
+  </si>
+  <si>
+    <t>enabledatasafeservice.end</t>
+  </si>
+  <si>
+    <t>updateauthenticationpolicy</t>
+  </si>
+  <si>
+    <t>createauthtoken</t>
+  </si>
+  <si>
+    <t>createcustomersecretkey</t>
+  </si>
+  <si>
+    <t>createorresetpassword</t>
+  </si>
+  <si>
+    <t>createsmtpcredential</t>
+  </si>
+  <si>
+    <t>createswiftpassword</t>
+  </si>
+  <si>
+    <t>deleteapikey</t>
+  </si>
+  <si>
+    <t>deleteauthtoken</t>
+  </si>
+  <si>
+    <t>deletecustomersecretkey</t>
+  </si>
+  <si>
+    <t>deletesmtpcredential</t>
+  </si>
+  <si>
+    <t>deleteswiftpassword</t>
+  </si>
+  <si>
+    <t>updateauthtoken</t>
+  </si>
+  <si>
+    <t>updatecustomersecretkey</t>
+  </si>
+  <si>
+    <t>updatesmtpcredential</t>
+  </si>
+  <si>
+    <t>updateswiftpassword</t>
+  </si>
+  <si>
+    <t>uploadapikey</t>
+  </si>
+  <si>
+    <t>createdynamicgroup</t>
+  </si>
+  <si>
+    <t>deletedynamicgroup</t>
+  </si>
+  <si>
+    <t>updatedynamicgroup</t>
+  </si>
+  <si>
+    <t>addusertoidpgroup</t>
+  </si>
+  <si>
+    <t>createidentityprovidergroup</t>
+  </si>
+  <si>
+    <t>createidpuser</t>
+  </si>
+  <si>
+    <t>deleteidentityprovidergroup</t>
+  </si>
+  <si>
+    <t>deleteidpuser</t>
+  </si>
+  <si>
+    <t>removeuserfromidpgroup</t>
+  </si>
+  <si>
+    <t>resetidpscimclient</t>
+  </si>
+  <si>
+    <t>activatemfatotpdevice</t>
+  </si>
+  <si>
+    <t>createmfatotpdevice</t>
+  </si>
+  <si>
+    <t>deletemfatotpdevice</t>
+  </si>
+  <si>
+    <t>generatetotpseed</t>
+  </si>
+  <si>
+    <t>compartmentscontrolplane</t>
+  </si>
+  <si>
+    <t>accountbootstrapmanagedcompartment</t>
+  </si>
+  <si>
+    <t>createmanagedcompartment</t>
+  </si>
+  <si>
+    <t>listmanagedcompartments</t>
+  </si>
+  <si>
+    <t>createcompartment</t>
+  </si>
+  <si>
+    <t>deletecompartment</t>
+  </si>
+  <si>
+    <t>movecompartment</t>
+  </si>
+  <si>
+    <t>updatecompartment</t>
+  </si>
+  <si>
+    <t>getcapabilities</t>
+  </si>
+  <si>
+    <t>createtenancy</t>
+  </si>
+  <si>
+    <t>getaccountbyentitlementid</t>
+  </si>
+  <si>
+    <t>createregionsubscription</t>
   </si>
 </sst>
 </file>
@@ -2358,6 +2301,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="75">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2878,36 +2851,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -3631,60 +3574,60 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="identity" displayName="identity" ref="N1:N51" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="identity" displayName="identity" ref="N1:N51" totalsRowShown="0" headerRowDxfId="37" dataDxfId="0">
   <autoFilter ref="N1:N51"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="identityControlPlane" dataDxfId="35"/>
+    <tableColumn id="1" name="identityControlPlane" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="compartments" displayName="compartments" ref="O1:O12" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="compartments" displayName="compartments" ref="O1:O12" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="O1:O12"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="compartmentsControlPlane" dataDxfId="32"/>
+    <tableColumn id="1" name="compartmentscontrolplane" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="network25" displayName="network25" ref="P1:P48" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="network25" displayName="network25" ref="P1:P48" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="P1:P48"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="virtualnetwork" dataDxfId="29"/>
+    <tableColumn id="1" name="virtualnetwork" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="natg" displayName="natg" ref="Q1:Q5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="natg" displayName="natg" ref="Q1:Q5" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="Q1:Q5"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="natgateway" dataDxfId="26"/>
+    <tableColumn id="1" name="natgateway" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="serviceg" displayName="serviceg" ref="R1:R8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="serviceg" displayName="serviceg" ref="R1:R8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="R1:R8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="servicegateway" dataDxfId="23"/>
+    <tableColumn id="1" name="servicegateway" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="notifi" displayName="notifi" ref="S1:S10" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="notifi" displayName="notifi" ref="S1:S10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="S1:S10"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="notification" dataDxfId="20"/>
+    <tableColumn id="1" name="notification" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3701,7 +3644,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="objects" displayName="objects" ref="T1:T7" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="objects" displayName="objects" ref="T1:T7" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="T1:T7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="objectstorage"/>
@@ -3711,90 +3654,90 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="resourcemanager" displayName="resourcemanager" ref="U1:U10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="resourcemanager" displayName="resourcemanager" ref="U1:U10" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="U1:U10"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="oracleresourcemanager" dataDxfId="16"/>
+    <tableColumn id="1" name="oracleresourcemanager" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="wafs" displayName="wafs" ref="V1:V21" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="wafs" displayName="wafs" ref="V1:V21" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="V1:V21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="waf" dataDxfId="14"/>
+    <tableColumn id="1" name="waf" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="analy" displayName="analy" ref="W1:W11" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="analy" displayName="analy" ref="W1:W11" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="W1:W11"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="analytics" dataDxfId="12"/>
+    <tableColumn id="1" name="analytics" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="bc" displayName="bc" ref="X1:X26" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="bc" displayName="bc" ref="X1:X26" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="X1:X26"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="blockchain" dataDxfId="10"/>
+    <tableColumn id="1" name="blockchain" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="datasafe" displayName="datasafe" ref="Y1:Y3" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="datasafe" displayName="datasafe" ref="Y1:Y3" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="Y1:Y3"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="DataSafeInstancesControlPlane" dataDxfId="8"/>
+    <tableColumn id="1" name="datasafeinstancescontrolplane" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="digiassis" displayName="digiassis" ref="Z1:Z8" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="digiassis" displayName="digiassis" ref="Z1:Z8" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="digitalassistant" dataDxfId="6"/>
+    <tableColumn id="1" name="digitalassistant" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="integra" displayName="integra" ref="AA1:AA13" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="integra" displayName="integra" ref="AA1:AA13" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="AA1:AA13"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="intergration" dataDxfId="4"/>
+    <tableColumn id="1" name="intergration" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="nosq" displayName="nosq" ref="AB1:AB13" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="nosq" displayName="nosq" ref="AB1:AB13" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="AB1:AB13"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="nosql" dataDxfId="2"/>
+    <tableColumn id="1" name="nosql" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="os" displayName="os" ref="AC1:AC9" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="os" displayName="os" ref="AC1:AC9" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="AC1:AC9"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="osms" dataDxfId="0"/>
+    <tableColumn id="1" name="osms" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4239,10 +4182,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>664</v>
+        <v>600</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -4251,7 +4194,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4260,10 +4203,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>664</v>
+        <v>600</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -4272,7 +4215,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4672,10 +4615,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>22</v>
@@ -4699,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L3" s="10"/>
     </row>
@@ -4708,10 +4651,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>22</v>
@@ -4735,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -4744,10 +4687,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>22</v>
@@ -4771,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L5" s="10"/>
     </row>
@@ -4780,10 +4723,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
@@ -4807,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L6" s="10"/>
     </row>
@@ -4816,10 +4759,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>22</v>
@@ -4843,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L7" s="10"/>
     </row>
@@ -4852,10 +4795,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>22</v>
@@ -4879,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -4888,10 +4831,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>22</v>
@@ -4915,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L9" s="10"/>
     </row>
@@ -4924,10 +4867,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>22</v>
@@ -4951,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L10" s="10"/>
     </row>
@@ -4960,10 +4903,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>22</v>
@@ -4987,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L11" s="10"/>
     </row>
@@ -4996,10 +4939,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>22</v>
@@ -5023,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L12" s="10"/>
     </row>
@@ -5032,10 +4975,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -5059,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L13" s="10"/>
     </row>
@@ -5068,10 +5011,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>22</v>
@@ -5095,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L14" s="10"/>
     </row>
@@ -5104,10 +5047,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>22</v>
@@ -5131,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -5140,10 +5083,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>22</v>
@@ -5167,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L16" s="10"/>
     </row>
@@ -5176,10 +5119,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>22</v>
@@ -5203,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L17" s="10"/>
     </row>
@@ -5212,10 +5155,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>22</v>
@@ -5239,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -5248,10 +5191,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>22</v>
@@ -5275,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L19" s="10"/>
     </row>
@@ -5284,10 +5227,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>22</v>
@@ -5311,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L20" s="10"/>
     </row>
@@ -5320,10 +5263,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>22</v>
@@ -5347,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L21" s="10"/>
     </row>
@@ -5356,10 +5299,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>22</v>
@@ -5383,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L22" s="10"/>
     </row>
@@ -5392,10 +5335,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>22</v>
@@ -5419,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L23" s="10"/>
     </row>
@@ -5428,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>22</v>
@@ -5455,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L24" s="10"/>
     </row>
@@ -5464,10 +5407,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>22</v>
@@ -5491,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L25" s="10"/>
     </row>
@@ -5500,10 +5443,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>22</v>
@@ -5527,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L26" s="10"/>
     </row>
@@ -5536,10 +5479,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>22</v>
@@ -5563,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L27" s="10"/>
     </row>
@@ -5572,10 +5515,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>54</v>
@@ -5599,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L28" s="10"/>
     </row>
@@ -5608,10 +5551,10 @@
         <v>9</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>54</v>
@@ -5635,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L29" s="10"/>
     </row>
@@ -5644,10 +5587,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>54</v>
@@ -5671,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L30" s="10"/>
     </row>
@@ -5680,10 +5623,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>54</v>
@@ -5707,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L31" s="10"/>
     </row>
@@ -5716,10 +5659,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>655</v>
+        <v>591</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>59</v>
@@ -5743,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -5752,10 +5695,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>655</v>
+        <v>591</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>59</v>
@@ -5779,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L33" s="10"/>
     </row>
@@ -5788,10 +5731,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>655</v>
+        <v>591</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>59</v>
@@ -5815,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L34" s="10"/>
     </row>
@@ -5824,10 +5767,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>63</v>
@@ -5851,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L35" s="10"/>
     </row>
@@ -5860,10 +5803,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>63</v>
@@ -5887,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L36" s="10"/>
     </row>
@@ -5896,10 +5839,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>63</v>
@@ -5923,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L37" s="10"/>
     </row>
@@ -5932,10 +5875,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>63</v>
@@ -5959,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L38" s="10"/>
     </row>
@@ -5968,10 +5911,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>657</v>
+        <v>593</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>68</v>
@@ -5986,16 +5929,16 @@
         <v>25</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>666</v>
+        <v>602</v>
       </c>
       <c r="J39" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -6004,10 +5947,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>657</v>
+        <v>593</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>68</v>
@@ -6022,16 +5965,16 @@
         <v>25</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="J40" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L40" s="10"/>
     </row>
@@ -6040,10 +5983,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>657</v>
+        <v>593</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>68</v>
@@ -6058,16 +6001,16 @@
         <v>25</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>668</v>
+        <v>604</v>
       </c>
       <c r="J41" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L41" s="10"/>
     </row>
@@ -6076,10 +6019,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>657</v>
+        <v>593</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>68</v>
@@ -6094,16 +6037,16 @@
         <v>25</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>669</v>
+        <v>605</v>
       </c>
       <c r="J42" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L42" s="10"/>
     </row>
@@ -6112,10 +6055,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>657</v>
+        <v>593</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>68</v>
@@ -6130,16 +6073,16 @@
         <v>25</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>670</v>
+        <v>606</v>
       </c>
       <c r="J43" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L43" s="10"/>
     </row>
@@ -6148,13 +6091,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>23</v>
@@ -6169,13 +6112,13 @@
         <v>26</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J44" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L44" s="10"/>
     </row>
@@ -6184,13 +6127,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>23</v>
@@ -6205,13 +6148,13 @@
         <v>26</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J45" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L45" s="10"/>
     </row>
@@ -6220,13 +6163,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>23</v>
@@ -6241,13 +6184,13 @@
         <v>26</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J46" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L46" s="10"/>
     </row>
@@ -6256,13 +6199,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>23</v>
@@ -6277,13 +6220,13 @@
         <v>26</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J47" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="L47" s="10"/>
     </row>
@@ -6292,13 +6235,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>23</v>
@@ -6310,16 +6253,16 @@
         <v>25</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>671</v>
+        <v>607</v>
       </c>
       <c r="J48" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L48" s="10"/>
     </row>
@@ -6328,13 +6271,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>23</v>
@@ -6346,16 +6289,16 @@
         <v>25</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>672</v>
+        <v>608</v>
       </c>
       <c r="J49" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L49" s="10"/>
     </row>
@@ -6364,13 +6307,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>23</v>
@@ -6382,16 +6325,16 @@
         <v>25</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>673</v>
+        <v>609</v>
       </c>
       <c r="J50" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L50" s="10"/>
     </row>
@@ -6400,13 +6343,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>23</v>
@@ -6418,16 +6361,16 @@
         <v>25</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>674</v>
+        <v>610</v>
       </c>
       <c r="J51" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L51" s="10"/>
     </row>
@@ -6436,13 +6379,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>23</v>
@@ -6454,16 +6397,16 @@
         <v>25</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>675</v>
+        <v>611</v>
       </c>
       <c r="J52" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L52" s="10"/>
     </row>
@@ -6472,13 +6415,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>23</v>
@@ -6490,16 +6433,16 @@
         <v>25</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>676</v>
+        <v>612</v>
       </c>
       <c r="J53" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L53" s="10"/>
     </row>
@@ -6508,13 +6451,13 @@
         <v>9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>23</v>
@@ -6526,16 +6469,16 @@
         <v>25</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>677</v>
+        <v>613</v>
       </c>
       <c r="J54" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L54" s="10"/>
     </row>
@@ -6544,13 +6487,13 @@
         <v>9</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>23</v>
@@ -6562,16 +6505,16 @@
         <v>25</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>678</v>
+        <v>614</v>
       </c>
       <c r="J55" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L55" s="10"/>
     </row>
@@ -6580,13 +6523,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>23</v>
@@ -6598,16 +6541,16 @@
         <v>25</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>679</v>
+        <v>615</v>
       </c>
       <c r="J56" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L56" s="10"/>
     </row>
@@ -6616,13 +6559,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>23</v>
@@ -6634,16 +6577,16 @@
         <v>25</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>680</v>
+        <v>616</v>
       </c>
       <c r="J57" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L57" s="10"/>
     </row>
@@ -6652,13 +6595,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>23</v>
@@ -6670,16 +6613,16 @@
         <v>25</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>681</v>
+        <v>617</v>
       </c>
       <c r="J58" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L58" s="10"/>
     </row>
@@ -6688,13 +6631,13 @@
         <v>9</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>23</v>
@@ -6706,16 +6649,16 @@
         <v>25</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>682</v>
+        <v>618</v>
       </c>
       <c r="J59" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L59" s="10"/>
     </row>
@@ -6724,13 +6667,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>23</v>
@@ -6742,16 +6685,16 @@
         <v>25</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>683</v>
+        <v>619</v>
       </c>
       <c r="J60" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L60" s="10"/>
     </row>
@@ -6760,13 +6703,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>23</v>
@@ -6778,16 +6721,16 @@
         <v>25</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>684</v>
+        <v>620</v>
       </c>
       <c r="J61" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="L61" s="10"/>
     </row>
@@ -6815,8 +6758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6844,49 +6787,49 @@
   <sheetData>
     <row r="1" spans="1:29" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>111</v>
+        <v>654</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>26</v>
@@ -6898,87 +6841,87 @@
         <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="V1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="W1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="X1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="Y1" t="s">
-        <v>118</v>
+        <v>621</v>
       </c>
       <c r="Z1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="AA1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AB1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="AC1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>136</v>
+        <v>624</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>137</v>
+        <v>655</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>45</v>
@@ -6987,87 +6930,87 @@
         <v>50</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="T2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>145</v>
+        <v>622</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>163</v>
+        <v>625</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>164</v>
+        <v>656</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>42</v>
@@ -7076,87 +7019,87 @@
         <v>53</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="T3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>172</v>
+        <v>623</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>190</v>
+        <v>626</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>191</v>
+        <v>657</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>43</v>
@@ -7165,85 +7108,85 @@
         <v>47</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="T4" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>215</v>
+        <v>627</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>216</v>
+        <v>658</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>44</v>
@@ -7252,166 +7195,166 @@
         <v>49</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="T5" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>241</v>
+        <v>628</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>242</v>
+        <v>659</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="T6" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>267</v>
+        <v>629</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>268</v>
+        <v>660</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>28</v>
@@ -7420,76 +7363,76 @@
         <v>51</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="T7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="I8" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="J8" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
-        <v>289</v>
+        <v>630</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>290</v>
+        <v>661</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>29</v>
@@ -7498,194 +7441,194 @@
         <v>52</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="J9" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
-        <v>308</v>
+        <v>631</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>309</v>
+        <v>662</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="2" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="J10" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="L10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>326</v>
+        <v>632</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>327</v>
+        <v>663</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="2" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="J11" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>343</v>
+        <v>633</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>344</v>
+        <v>664</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
@@ -7693,55 +7636,55 @@
       <c r="S11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="2" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="I12" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>357</v>
+        <v>634</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>358</v>
+        <v>665</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>36</v>
@@ -7749,49 +7692,49 @@
       <c r="S12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="2" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="I13" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="J13" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>370</v>
+        <v>635</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>33</v>
@@ -7799,60 +7742,60 @@
       <c r="S13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="I14" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="J14" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>136</v>
+        <v>624</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -7862,42 +7805,42 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="I15" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>393</v>
+        <v>636</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="S15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -7907,41 +7850,41 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="I16" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>404</v>
+        <v>637</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -7951,39 +7894,39 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="I17" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>414</v>
+        <v>638</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -7994,36 +7937,36 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="I18" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>423</v>
+        <v>639</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -8034,36 +7977,36 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="I19" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>431</v>
+        <v>640</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -8073,33 +8016,33 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>439</v>
+        <v>641</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -8109,33 +8052,33 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>447</v>
+        <v>642</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -8145,22 +8088,22 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>70</v>
+        <v>602</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>65</v>
@@ -8168,7 +8111,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -8178,22 +8121,22 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>603</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>66</v>
@@ -8201,7 +8144,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -8211,28 +8154,28 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="J24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>72</v>
+        <v>604</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -8242,28 +8185,28 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="J25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>73</v>
+        <v>605</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>473</v>
+        <v>420</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -8273,28 +8216,28 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>477</v>
+        <v>424</v>
       </c>
       <c r="J26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>74</v>
+        <v>606</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>479</v>
+        <v>426</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -8304,176 +8247,176 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="J27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>484</v>
+        <v>643</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="J28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>85</v>
+        <v>610</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="J29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>495</v>
+        <v>644</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="J30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>95</v>
+        <v>618</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
       <c r="J31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>506</v>
+        <v>645</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="J32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>86</v>
+        <v>611</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="J33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>513</v>
+        <v>646</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="J34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>96</v>
+        <v>619</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="J35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>520</v>
+        <v>647</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>58</v>
@@ -8481,17 +8424,17 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
-        <v>521</v>
+        <v>463</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>522</v>
+        <v>464</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>523</v>
+        <v>465</v>
       </c>
       <c r="J36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>524</v>
+        <v>648</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>55</v>
@@ -8499,16 +8442,16 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
-        <v>525</v>
+        <v>466</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>528</v>
+        <v>649</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>56</v>
@@ -8516,16 +8459,16 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>87</v>
+        <v>612</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>57</v>
@@ -8533,58 +8476,58 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>97</v>
+        <v>620</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>538</v>
+        <v>650</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>539</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
-        <v>540</v>
+        <v>479</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>541</v>
+        <v>480</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>542</v>
+        <v>651</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>546</v>
+        <v>652</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>60</v>
@@ -8592,13 +8535,13 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
-        <v>547</v>
+        <v>484</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>548</v>
+        <v>485</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>549</v>
+        <v>653</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>61</v>
@@ -8606,13 +8549,13 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>550</v>
+        <v>486</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>551</v>
+        <v>487</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>81</v>
+        <v>607</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>62</v>
@@ -8620,495 +8563,495 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
-        <v>552</v>
+        <v>488</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>553</v>
+        <v>489</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>82</v>
+        <v>608</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>554</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
-        <v>555</v>
+        <v>491</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>556</v>
+        <v>492</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>83</v>
+        <v>609</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>557</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>89</v>
+        <v>613</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>560</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>561</v>
+        <v>497</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>90</v>
+        <v>614</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>563</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>565</v>
+        <v>501</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>91</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>566</v>
+        <v>502</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>567</v>
+        <v>503</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>92</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
-        <v>568</v>
+        <v>504</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>93</v>
+        <v>617</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
-        <v>570</v>
+        <v>506</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>571</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
-        <v>572</v>
+        <v>508</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>575</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>577</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>580</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>581</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>582</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>584</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>588</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H67" s="2" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H68" s="2" t="s">
-        <v>590</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H69" s="2" t="s">
-        <v>591</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H70" s="2" t="s">
-        <v>592</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="H71" s="2" t="s">
-        <v>593</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H72" s="2" t="s">
-        <v>594</v>
+        <v>530</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
-        <v>595</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H74" s="2" t="s">
-        <v>596</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H75" s="2" t="s">
-        <v>597</v>
+        <v>533</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H76" s="2" t="s">
-        <v>598</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H77" s="2" t="s">
-        <v>599</v>
+        <v>535</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H78" s="2" t="s">
-        <v>600</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H79" s="2" t="s">
-        <v>601</v>
+        <v>537</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H80" s="2" t="s">
-        <v>602</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H81" s="2" t="s">
-        <v>603</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H82" s="2" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H83" s="2" t="s">
-        <v>605</v>
+        <v>541</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H84" s="2" t="s">
-        <v>606</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
-        <v>607</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H86" s="2" t="s">
-        <v>608</v>
+        <v>544</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H87" s="2" t="s">
-        <v>609</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H88" s="2" t="s">
-        <v>610</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H89" s="2" t="s">
-        <v>611</v>
+        <v>547</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H90" s="2" t="s">
-        <v>612</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H91" s="2" t="s">
-        <v>613</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H92" s="2" t="s">
-        <v>614</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H93" s="2" t="s">
-        <v>615</v>
+        <v>551</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H94" s="2" t="s">
-        <v>616</v>
+        <v>552</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H95" s="2" t="s">
-        <v>617</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H96" s="2" t="s">
-        <v>618</v>
+        <v>554</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H97" s="2" t="s">
-        <v>619</v>
+        <v>555</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H98" s="2" t="s">
-        <v>620</v>
+        <v>556</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H99" s="2" t="s">
-        <v>621</v>
+        <v>557</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H100" s="2" t="s">
-        <v>622</v>
+        <v>558</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H101" s="2" t="s">
-        <v>623</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H102" s="2" t="s">
-        <v>624</v>
+        <v>560</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H103" s="2" t="s">
-        <v>625</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H104" s="2" t="s">
-        <v>626</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H105" s="2" t="s">
-        <v>627</v>
+        <v>563</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H106" s="2" t="s">
-        <v>628</v>
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H107" s="2" t="s">
-        <v>629</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H108" s="2" t="s">
-        <v>630</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H109" s="2" t="s">
-        <v>631</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H110" s="2" t="s">
-        <v>632</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H111" s="2" t="s">
-        <v>633</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H112" s="2" t="s">
-        <v>634</v>
+        <v>570</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H113" s="2" t="s">
-        <v>635</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H114" s="2" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H115" s="2" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H116" s="2" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H117" s="2" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H118" s="2" t="s">
-        <v>640</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H119" s="2" t="s">
-        <v>641</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H120" s="2" t="s">
-        <v>642</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H121" s="2" t="s">
-        <v>643</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H122" s="2" t="s">
-        <v>644</v>
+        <v>580</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H123" s="2" t="s">
-        <v>645</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H124" s="2" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H125" s="2" t="s">
-        <v>647</v>
+        <v>583</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H126" s="2" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H127" s="2" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.35">
@@ -9119,9 +9062,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="29">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -9150,6 +9092,7 @@
     <tablePart r:id="rId27"/>
     <tablePart r:id="rId28"/>
     <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUSINGLA\Desktop\Misc\CD3aaS\CD3 Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,11 +66,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="666">
   <si>
-    <t xml:space="preserve">
-Automation Toolkit release version- v7.0
-Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.</t>
-  </si>
-  <si>
     <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
 Columns: Region, Compartment Name, Topic, Protocol and Endpoint are mandatory.
 "Protocol" - Only EMAIL is supported currently for creation. Export supports Functions and Email.
@@ -2074,6 +2069,78 @@
   </si>
   <si>
     <t>createregionsubscription</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v7.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CD3 Sheet Format is same as release v7.0
+Added additional components to Groups, Policies, Tags as per CIS compliance
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2301,36 +2368,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="75">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2855,6 +2892,36 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3574,60 +3641,60 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="identity" displayName="identity" ref="N1:N51" totalsRowShown="0" headerRowDxfId="37" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="identity" displayName="identity" ref="N1:N51" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="N1:N51"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="identityControlPlane" dataDxfId="1"/>
+    <tableColumn id="1" name="identityControlPlane" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="compartments" displayName="compartments" ref="O1:O12" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="compartments" displayName="compartments" ref="O1:O12" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="O1:O12"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="compartmentscontrolplane" dataDxfId="34"/>
+    <tableColumn id="1" name="compartmentscontrolplane" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="network25" displayName="network25" ref="P1:P48" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="network25" displayName="network25" ref="P1:P48" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="P1:P48"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="virtualnetwork" dataDxfId="31"/>
+    <tableColumn id="1" name="virtualnetwork" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="natg" displayName="natg" ref="Q1:Q5" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="natg" displayName="natg" ref="Q1:Q5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="Q1:Q5"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="natgateway" dataDxfId="28"/>
+    <tableColumn id="1" name="natgateway" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="serviceg" displayName="serviceg" ref="R1:R8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="serviceg" displayName="serviceg" ref="R1:R8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="R1:R8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="servicegateway" dataDxfId="25"/>
+    <tableColumn id="1" name="servicegateway" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="notifi" displayName="notifi" ref="S1:S10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="notifi" displayName="notifi" ref="S1:S10" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="S1:S10"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="notification" dataDxfId="22"/>
+    <tableColumn id="1" name="notification" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3644,7 +3711,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="objects" displayName="objects" ref="T1:T7" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="objects" displayName="objects" ref="T1:T7" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="T1:T7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="objectstorage"/>
@@ -3654,90 +3721,90 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="resourcemanager" displayName="resourcemanager" ref="U1:U10" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="resourcemanager" displayName="resourcemanager" ref="U1:U10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="U1:U10"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="oracleresourcemanager" dataDxfId="18"/>
+    <tableColumn id="1" name="oracleresourcemanager" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="wafs" displayName="wafs" ref="V1:V21" totalsRowShown="0" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="wafs" displayName="wafs" ref="V1:V21" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="V1:V21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="waf" dataDxfId="16"/>
+    <tableColumn id="1" name="waf" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="analy" displayName="analy" ref="W1:W11" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="analy" displayName="analy" ref="W1:W11" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="W1:W11"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="analytics" dataDxfId="14"/>
+    <tableColumn id="1" name="analytics" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="bc" displayName="bc" ref="X1:X26" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="bc" displayName="bc" ref="X1:X26" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="X1:X26"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="blockchain" dataDxfId="12"/>
+    <tableColumn id="1" name="blockchain" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="datasafe" displayName="datasafe" ref="Y1:Y3" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="datasafe" displayName="datasafe" ref="Y1:Y3" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="Y1:Y3"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="datasafeinstancescontrolplane" dataDxfId="10"/>
+    <tableColumn id="1" name="datasafeinstancescontrolplane" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="digiassis" displayName="digiassis" ref="Z1:Z8" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="digiassis" displayName="digiassis" ref="Z1:Z8" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="digitalassistant" dataDxfId="8"/>
+    <tableColumn id="1" name="digitalassistant" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="integra" displayName="integra" ref="AA1:AA13" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="integra" displayName="integra" ref="AA1:AA13" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="AA1:AA13"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="intergration" dataDxfId="6"/>
+    <tableColumn id="1" name="intergration" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="nosq" displayName="nosq" ref="AB1:AB13" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="nosq" displayName="nosq" ref="AB1:AB13" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="AB1:AB13"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="nosql" dataDxfId="4"/>
+    <tableColumn id="1" name="nosql" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="os" displayName="os" ref="AC1:AC9" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="os" displayName="os" ref="AC1:AC9" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="AC1:AC9"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="osms" dataDxfId="2"/>
+    <tableColumn id="1" name="osms" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4114,7 +4181,7 @@
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="72.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>0</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -4145,7 +4212,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4156,66 +4223,66 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>588</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4558,7 +4625,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="85.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4574,2163 +4641,2163 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="J3" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="J17" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="J21" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="J28" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I30" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I31" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="J32" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J33" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I34" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J34" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="J35" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I36" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I37" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J37" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I38" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J38" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H39" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>601</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>602</v>
       </c>
       <c r="J39" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H40" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J40" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H41" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J41" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H42" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J42" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H43" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J43" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="J44" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I45" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J45" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I46" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J46" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="G47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I47" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J47" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="G48" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H48" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J48" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H49" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J49" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H50" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J50" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H51" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J51" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H52" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J52" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L52" s="10"/>
     </row>
     <row r="53" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="G53" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H53" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J53" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L53" s="10"/>
     </row>
     <row r="54" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H54" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J54" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H55" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J55" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H56" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J56" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L56" s="10"/>
     </row>
     <row r="57" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H57" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J57" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H58" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J58" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H59" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J59" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L59" s="10"/>
     </row>
     <row r="60" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H60" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J60" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H61" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J61" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L61" s="10"/>
     </row>
@@ -6787,1015 +6854,1015 @@
   <sheetData>
     <row r="1" spans="1:29" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>94</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>95</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>96</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>620</v>
+      </c>
+      <c r="Z1" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" t="s">
-        <v>621</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>100</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" t="s">
         <v>109</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" t="s">
         <v>116</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" t="s">
         <v>133</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>134</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" t="s">
         <v>140</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" t="s">
         <v>157</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>158</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" t="s">
         <v>164</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" t="s">
         <v>181</v>
       </c>
-      <c r="I5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" t="s">
         <v>187</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" t="s">
         <v>204</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>205</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" t="s">
         <v>211</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" t="s">
         <v>228</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>229</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" t="s">
         <v>234</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" t="s">
         <v>249</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>250</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" t="s">
         <v>267</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>268</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" t="s">
         <v>283</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>284</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="L10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" t="s">
         <v>298</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>299</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" t="s">
         <v>311</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="J13" t="s">
-        <v>300</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" t="s">
         <v>333</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>334</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -7805,42 +7872,42 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" t="s">
         <v>343</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -7850,41 +7917,41 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" t="s">
         <v>353</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="N16" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -7894,39 +7961,39 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" t="s">
         <v>363</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -7937,36 +8004,36 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" t="s">
         <v>371</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -7977,36 +8044,36 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" t="s">
         <v>379</v>
       </c>
-      <c r="I19" t="s">
-        <v>380</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -8016,33 +8083,33 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -8052,33 +8119,33 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -8088,30 +8155,30 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -8121,30 +8188,30 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -8154,28 +8221,28 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="J24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -8185,28 +8252,28 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="J25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -8216,28 +8283,28 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="J26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -8247,811 +8314,811 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="J27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="J28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="J29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="J30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="J31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="J32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="J33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="J34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="J35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="J36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="N37" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="N39" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="P39" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="N40" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="P40" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="N41" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="P41" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N42" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="N43" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="N45" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="P45" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="N46" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="N47" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="N48" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="N49" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="N50" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="N51" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H67" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H68" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H69" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H70" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="H71" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H72" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H74" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H75" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H76" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H77" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H78" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H79" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H80" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H81" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H82" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H83" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H84" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H86" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H87" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H88" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H89" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H90" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H91" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H92" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H93" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H94" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H95" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H96" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H97" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H98" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H99" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H100" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H101" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H102" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H103" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H104" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H105" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H106" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H107" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H108" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H109" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H110" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H111" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H112" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H113" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H114" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H115" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H116" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H117" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H118" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H119" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H120" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H121" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H122" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H123" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H124" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H125" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H126" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H127" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.35">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -2126,7 +2126,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>v7.2</t>
+      <t xml:space="preserve">v8.0
+</t>
     </r>
     <r>
       <rPr>
@@ -2136,9 +2137,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-CD3 Sheet Format is same as release v7.0
-Added additional components to Groups, Policies, Tags as per CIS compliance
+      <t xml:space="preserve">Added new sheets - DRGv2 and DRGRouteRulesinOCI
 </t>
     </r>
   </si>
@@ -2182,6 +2181,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-EN-template.xlsx
@@ -2126,7 +2126,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">v8.0
+      <t xml:space="preserve">v8.0.2
 </t>
     </r>
     <r>
